--- a/Bases_de_Dados_(2022-2023)/Norway Eliteserien_2022.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Norway Eliteserien_2022.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="363">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -754,6 +754,15 @@
     <t>['45+3']</t>
   </si>
   <si>
+    <t>['73', '77', '88']</t>
+  </si>
+  <si>
+    <t>['75', '76']</t>
+  </si>
+  <si>
+    <t>['38', '41', '57', '83']</t>
+  </si>
+  <si>
     <t>['65', '70']</t>
   </si>
   <si>
@@ -1079,6 +1088,21 @@
   </si>
   <si>
     <t>['25', '49']</t>
+  </si>
+  <si>
+    <t>['18', '75']</t>
+  </si>
+  <si>
+    <t>['24', '60']</t>
+  </si>
+  <si>
+    <t>['86', '90+7']</t>
+  </si>
+  <si>
+    <t>['82', '87']</t>
+  </si>
+  <si>
+    <t>['3', '44', '59', '83']</t>
   </si>
 </sst>
 </file>
@@ -1440,7 +1464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK219"/>
+  <dimension ref="A1:BK225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1684,7 +1708,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -2257,7 +2281,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q5">
         <v>11</v>
@@ -3021,7 +3045,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3299,10 +3323,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT10">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3403,7 +3427,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -3490,10 +3514,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT11">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3594,7 +3618,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3681,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT12">
         <v>1.21</v>
@@ -3785,7 +3809,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3875,7 +3899,7 @@
         <v>1.64</v>
       </c>
       <c r="AT13">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4063,10 +4087,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT14">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4167,7 +4191,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4254,10 +4278,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT15">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4636,10 +4660,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT17">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -5504,7 +5528,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q22">
         <v>7</v>
@@ -5695,7 +5719,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5886,7 +5910,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6077,7 +6101,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q25">
         <v>8</v>
@@ -6268,7 +6292,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q26">
         <v>13</v>
@@ -6358,7 +6382,7 @@
         <v>1.57</v>
       </c>
       <c r="AT26">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU26">
         <v>1.74</v>
@@ -6459,7 +6483,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q27">
         <v>11</v>
@@ -6650,7 +6674,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6737,10 +6761,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT28">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU28">
         <v>2.15</v>
@@ -6928,7 +6952,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT29">
         <v>1.07</v>
@@ -7032,7 +7056,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q30">
         <v>12</v>
@@ -7119,7 +7143,7 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT30">
         <v>1.21</v>
@@ -7310,10 +7334,10 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT31">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AU31">
         <v>2.41</v>
@@ -7504,7 +7528,7 @@
         <v>2.07</v>
       </c>
       <c r="AT32">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="AU32">
         <v>2.44</v>
@@ -7692,10 +7716,10 @@
         <v>3</v>
       </c>
       <c r="AS33">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT33">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AU33">
         <v>1.39</v>
@@ -7883,10 +7907,10 @@
         <v>1.5</v>
       </c>
       <c r="AS34">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT34">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU34">
         <v>1.66</v>
@@ -7987,7 +8011,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -8074,7 +8098,7 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT35">
         <v>1.07</v>
@@ -8268,7 +8292,7 @@
         <v>1.43</v>
       </c>
       <c r="AT36">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU36">
         <v>1.55</v>
@@ -8369,7 +8393,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -9324,7 +9348,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9411,7 +9435,7 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT42">
         <v>1</v>
@@ -9605,7 +9629,7 @@
         <v>1.29</v>
       </c>
       <c r="AT43">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU43">
         <v>2.13</v>
@@ -9796,7 +9820,7 @@
         <v>2.43</v>
       </c>
       <c r="AT44">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU44">
         <v>1.97</v>
@@ -9984,7 +10008,7 @@
         <v>1.5</v>
       </c>
       <c r="AS45">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT45">
         <v>0.71</v>
@@ -10175,7 +10199,7 @@
         <v>1</v>
       </c>
       <c r="AS46">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT46">
         <v>1</v>
@@ -10366,7 +10390,7 @@
         <v>3</v>
       </c>
       <c r="AS47">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT47">
         <v>1.21</v>
@@ -10470,7 +10494,7 @@
         <v>86</v>
       </c>
       <c r="P48" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10560,7 +10584,7 @@
         <v>1.43</v>
       </c>
       <c r="AT48">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AU48">
         <v>1.59</v>
@@ -10661,7 +10685,7 @@
         <v>86</v>
       </c>
       <c r="P49" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q49">
         <v>12</v>
@@ -10748,7 +10772,7 @@
         <v>1.33</v>
       </c>
       <c r="AS49">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT49">
         <v>0.71</v>
@@ -10939,10 +10963,10 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT50">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="AU50">
         <v>2.04</v>
@@ -11043,7 +11067,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -11234,7 +11258,7 @@
         <v>86</v>
       </c>
       <c r="P52" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q52">
         <v>10</v>
@@ -11512,7 +11536,7 @@
         <v>2</v>
       </c>
       <c r="AS53">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT53">
         <v>1.07</v>
@@ -11616,7 +11640,7 @@
         <v>122</v>
       </c>
       <c r="P54" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q54">
         <v>10</v>
@@ -11706,7 +11730,7 @@
         <v>2.07</v>
       </c>
       <c r="AT54">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU54">
         <v>2.59</v>
@@ -11807,7 +11831,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11894,7 +11918,7 @@
         <v>1.67</v>
       </c>
       <c r="AS55">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT55">
         <v>1.71</v>
@@ -12189,7 +12213,7 @@
         <v>125</v>
       </c>
       <c r="P57" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q57">
         <v>9</v>
@@ -12279,7 +12303,7 @@
         <v>1.5</v>
       </c>
       <c r="AT57">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AU57">
         <v>1.5</v>
@@ -12380,7 +12404,7 @@
         <v>126</v>
       </c>
       <c r="P58" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12571,7 +12595,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q59">
         <v>12</v>
@@ -12661,7 +12685,7 @@
         <v>1.43</v>
       </c>
       <c r="AT59">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU59">
         <v>1.94</v>
@@ -12849,7 +12873,7 @@
         <v>2</v>
       </c>
       <c r="AS60">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT60">
         <v>1.07</v>
@@ -13043,7 +13067,7 @@
         <v>1</v>
       </c>
       <c r="AT61">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU61">
         <v>1.18</v>
@@ -13144,7 +13168,7 @@
         <v>85</v>
       </c>
       <c r="P62" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13335,7 +13359,7 @@
         <v>128</v>
       </c>
       <c r="P63" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q63">
         <v>6</v>
@@ -13613,10 +13637,10 @@
         <v>0.67</v>
       </c>
       <c r="AS64">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT64">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU64">
         <v>2.23</v>
@@ -13717,7 +13741,7 @@
         <v>86</v>
       </c>
       <c r="P65" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13998,7 +14022,7 @@
         <v>1.43</v>
       </c>
       <c r="AT66">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="AU66">
         <v>1.58</v>
@@ -14186,7 +14210,7 @@
         <v>0.6</v>
       </c>
       <c r="AS67">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT67">
         <v>1</v>
@@ -14290,7 +14314,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q68">
         <v>7</v>
@@ -14377,7 +14401,7 @@
         <v>0.75</v>
       </c>
       <c r="AS68">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT68">
         <v>1.07</v>
@@ -14481,7 +14505,7 @@
         <v>133</v>
       </c>
       <c r="P69" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -14571,7 +14595,7 @@
         <v>1.43</v>
       </c>
       <c r="AT69">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AU69">
         <v>2.03</v>
@@ -14672,7 +14696,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14762,7 +14786,7 @@
         <v>1.29</v>
       </c>
       <c r="AT70">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU70">
         <v>1.81</v>
@@ -14863,7 +14887,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -15054,7 +15078,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q72">
         <v>5</v>
@@ -15144,7 +15168,7 @@
         <v>1.5</v>
       </c>
       <c r="AT72">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU72">
         <v>1.57</v>
@@ -15245,7 +15269,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q73">
         <v>11</v>
@@ -15436,7 +15460,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -15523,7 +15547,7 @@
         <v>2</v>
       </c>
       <c r="AS74">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT74">
         <v>1.71</v>
@@ -15717,7 +15741,7 @@
         <v>2.43</v>
       </c>
       <c r="AT75">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AU75">
         <v>2.28</v>
@@ -15818,7 +15842,7 @@
         <v>86</v>
       </c>
       <c r="P76" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q76">
         <v>14</v>
@@ -16200,7 +16224,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q78">
         <v>4</v>
@@ -16287,10 +16311,10 @@
         <v>1.5</v>
       </c>
       <c r="AS78">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT78">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AU78">
         <v>1.89</v>
@@ -16391,7 +16415,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q79">
         <v>15</v>
@@ -16478,7 +16502,7 @@
         <v>1.8</v>
       </c>
       <c r="AS79">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT79">
         <v>1.07</v>
@@ -16582,7 +16606,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q80">
         <v>10</v>
@@ -16672,7 +16696,7 @@
         <v>1</v>
       </c>
       <c r="AT80">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU80">
         <v>1.29</v>
@@ -16773,7 +16797,7 @@
         <v>142</v>
       </c>
       <c r="P81" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -16860,7 +16884,7 @@
         <v>1.2</v>
       </c>
       <c r="AS81">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT81">
         <v>1.07</v>
@@ -16964,7 +16988,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -17054,7 +17078,7 @@
         <v>1.57</v>
       </c>
       <c r="AT82">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AU82">
         <v>2.13</v>
@@ -17155,7 +17179,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q83">
         <v>12</v>
@@ -17242,7 +17266,7 @@
         <v>0.8</v>
       </c>
       <c r="AS83">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT83">
         <v>1.07</v>
@@ -17346,7 +17370,7 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17537,7 +17561,7 @@
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17815,7 +17839,7 @@
         <v>0</v>
       </c>
       <c r="AS86">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT86">
         <v>0.36</v>
@@ -17919,7 +17943,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -18301,7 +18325,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q89">
         <v>3</v>
@@ -18388,7 +18412,7 @@
         <v>0.75</v>
       </c>
       <c r="AS89">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT89">
         <v>0.79</v>
@@ -18582,7 +18606,7 @@
         <v>1.93</v>
       </c>
       <c r="AT90">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU90">
         <v>1.89</v>
@@ -18683,7 +18707,7 @@
         <v>86</v>
       </c>
       <c r="P91" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q91">
         <v>10</v>
@@ -18773,7 +18797,7 @@
         <v>2.07</v>
       </c>
       <c r="AT91">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU91">
         <v>2.43</v>
@@ -19065,7 +19089,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q93">
         <v>1</v>
@@ -19155,7 +19179,7 @@
         <v>1.57</v>
       </c>
       <c r="AT93">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AU93">
         <v>2.15</v>
@@ -19346,7 +19370,7 @@
         <v>1.29</v>
       </c>
       <c r="AT94">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AU94">
         <v>1.64</v>
@@ -19447,7 +19471,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -19534,7 +19558,7 @@
         <v>1.5</v>
       </c>
       <c r="AS95">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT95">
         <v>1.71</v>
@@ -19638,7 +19662,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -20107,7 +20131,7 @@
         <v>1</v>
       </c>
       <c r="AS98">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT98">
         <v>1.07</v>
@@ -20301,7 +20325,7 @@
         <v>2.43</v>
       </c>
       <c r="AT99">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="AU99">
         <v>2.15</v>
@@ -20402,7 +20426,7 @@
         <v>157</v>
       </c>
       <c r="P100" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20683,7 +20707,7 @@
         <v>1.64</v>
       </c>
       <c r="AT101">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU101">
         <v>1.9</v>
@@ -20975,7 +20999,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q103">
         <v>4</v>
@@ -21062,7 +21086,7 @@
         <v>1.17</v>
       </c>
       <c r="AS103">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT103">
         <v>1.07</v>
@@ -21166,7 +21190,7 @@
         <v>159</v>
       </c>
       <c r="P104" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q104">
         <v>7</v>
@@ -21253,10 +21277,10 @@
         <v>0.2</v>
       </c>
       <c r="AS104">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT104">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="AU104">
         <v>1.72</v>
@@ -21638,7 +21662,7 @@
         <v>1.5</v>
       </c>
       <c r="AT106">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU106">
         <v>1.7</v>
@@ -21739,7 +21763,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21826,10 +21850,10 @@
         <v>1.14</v>
       </c>
       <c r="AS107">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT107">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU107">
         <v>1.28</v>
@@ -21930,7 +21954,7 @@
         <v>156</v>
       </c>
       <c r="P108" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -22121,7 +22145,7 @@
         <v>86</v>
       </c>
       <c r="P109" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -22211,7 +22235,7 @@
         <v>1.29</v>
       </c>
       <c r="AT109">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AU109">
         <v>1.55</v>
@@ -22694,7 +22718,7 @@
         <v>162</v>
       </c>
       <c r="P112" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q112">
         <v>2</v>
@@ -22972,7 +22996,7 @@
         <v>0</v>
       </c>
       <c r="AS113">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT113">
         <v>0.36</v>
@@ -23357,7 +23381,7 @@
         <v>1.93</v>
       </c>
       <c r="AT115">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="AU115">
         <v>1.97</v>
@@ -23545,7 +23569,7 @@
         <v>0.67</v>
       </c>
       <c r="AS116">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT116">
         <v>0.79</v>
@@ -23649,7 +23673,7 @@
         <v>166</v>
       </c>
       <c r="P117" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -23736,10 +23760,10 @@
         <v>2.33</v>
       </c>
       <c r="AS117">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT117">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AU117">
         <v>1.31</v>
@@ -23840,7 +23864,7 @@
         <v>167</v>
       </c>
       <c r="P118" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -24031,7 +24055,7 @@
         <v>168</v>
       </c>
       <c r="P119" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24118,10 +24142,10 @@
         <v>1.43</v>
       </c>
       <c r="AS119">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT119">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU119">
         <v>1.55</v>
@@ -24503,7 +24527,7 @@
         <v>1.64</v>
       </c>
       <c r="AT121">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU121">
         <v>1.9</v>
@@ -24691,7 +24715,7 @@
         <v>0</v>
       </c>
       <c r="AS122">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT122">
         <v>0.36</v>
@@ -24795,7 +24819,7 @@
         <v>172</v>
       </c>
       <c r="P123" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q123">
         <v>6</v>
@@ -24885,7 +24909,7 @@
         <v>1.43</v>
       </c>
       <c r="AT123">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AU123">
         <v>1.64</v>
@@ -25177,7 +25201,7 @@
         <v>173</v>
       </c>
       <c r="P125" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q125">
         <v>7</v>
@@ -25455,7 +25479,7 @@
         <v>1.88</v>
       </c>
       <c r="AS126">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT126">
         <v>1.07</v>
@@ -25559,7 +25583,7 @@
         <v>175</v>
       </c>
       <c r="P127" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -25941,7 +25965,7 @@
         <v>86</v>
       </c>
       <c r="P129" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -26219,7 +26243,7 @@
         <v>0.57</v>
       </c>
       <c r="AS130">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT130">
         <v>0.79</v>
@@ -26413,7 +26437,7 @@
         <v>1.93</v>
       </c>
       <c r="AT131">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU131">
         <v>2.1</v>
@@ -26601,10 +26625,10 @@
         <v>1.14</v>
       </c>
       <c r="AS132">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT132">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU132">
         <v>1.83</v>
@@ -26705,7 +26729,7 @@
         <v>180</v>
       </c>
       <c r="P133" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -26792,7 +26816,7 @@
         <v>1.25</v>
       </c>
       <c r="AS133">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT133">
         <v>1.07</v>
@@ -26896,7 +26920,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -26983,7 +27007,7 @@
         <v>0.63</v>
       </c>
       <c r="AS134">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT134">
         <v>0.79</v>
@@ -27087,7 +27111,7 @@
         <v>181</v>
       </c>
       <c r="P135" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q135">
         <v>9</v>
@@ -27174,10 +27198,10 @@
         <v>2.43</v>
       </c>
       <c r="AS135">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT135">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AU135">
         <v>1.68</v>
@@ -27368,7 +27392,7 @@
         <v>1.5</v>
       </c>
       <c r="AT136">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="AU136">
         <v>1.64</v>
@@ -27469,7 +27493,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27750,7 +27774,7 @@
         <v>2.07</v>
       </c>
       <c r="AT138">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU138">
         <v>2.58</v>
@@ -27851,7 +27875,7 @@
         <v>185</v>
       </c>
       <c r="P139" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q139">
         <v>1</v>
@@ -27938,7 +27962,7 @@
         <v>1.22</v>
       </c>
       <c r="AS139">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT139">
         <v>1.07</v>
@@ -28042,7 +28066,7 @@
         <v>186</v>
       </c>
       <c r="P140" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q140">
         <v>6</v>
@@ -28132,7 +28156,7 @@
         <v>1.43</v>
       </c>
       <c r="AT140">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AU140">
         <v>1.97</v>
@@ -28233,7 +28257,7 @@
         <v>141</v>
       </c>
       <c r="P141" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q141">
         <v>6</v>
@@ -28702,7 +28726,7 @@
         <v>0.33</v>
       </c>
       <c r="AS143">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT143">
         <v>0.36</v>
@@ -29188,7 +29212,7 @@
         <v>190</v>
       </c>
       <c r="P146" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q146">
         <v>6</v>
@@ -29278,7 +29302,7 @@
         <v>1.93</v>
       </c>
       <c r="AT146">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU146">
         <v>2.2</v>
@@ -29657,7 +29681,7 @@
         <v>1.67</v>
       </c>
       <c r="AS148">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT148">
         <v>1.07</v>
@@ -29851,7 +29875,7 @@
         <v>1.64</v>
       </c>
       <c r="AT149">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="AU149">
         <v>1.93</v>
@@ -29952,7 +29976,7 @@
         <v>86</v>
       </c>
       <c r="P150" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -30042,7 +30066,7 @@
         <v>1.5</v>
       </c>
       <c r="AT150">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AU150">
         <v>1.73</v>
@@ -30230,10 +30254,10 @@
         <v>1</v>
       </c>
       <c r="AS151">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT151">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU151">
         <v>1.91</v>
@@ -30334,7 +30358,7 @@
         <v>86</v>
       </c>
       <c r="P152" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q152">
         <v>2</v>
@@ -30424,7 +30448,7 @@
         <v>1</v>
       </c>
       <c r="AT152">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AU152">
         <v>1.44</v>
@@ -30525,7 +30549,7 @@
         <v>195</v>
       </c>
       <c r="P153" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q153">
         <v>6</v>
@@ -30612,7 +30636,7 @@
         <v>1</v>
       </c>
       <c r="AS153">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT153">
         <v>0.71</v>
@@ -30716,7 +30740,7 @@
         <v>172</v>
       </c>
       <c r="P154" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -30806,7 +30830,7 @@
         <v>1.43</v>
       </c>
       <c r="AT154">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU154">
         <v>1.66</v>
@@ -31098,7 +31122,7 @@
         <v>197</v>
       </c>
       <c r="P156" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q156">
         <v>9</v>
@@ -31185,7 +31209,7 @@
         <v>0.3</v>
       </c>
       <c r="AS156">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT156">
         <v>0.36</v>
@@ -31289,7 +31313,7 @@
         <v>198</v>
       </c>
       <c r="P157" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q157">
         <v>5</v>
@@ -31480,7 +31504,7 @@
         <v>199</v>
       </c>
       <c r="P158" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -31567,7 +31591,7 @@
         <v>1.1</v>
       </c>
       <c r="AS158">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT158">
         <v>1</v>
@@ -31671,7 +31695,7 @@
         <v>200</v>
       </c>
       <c r="P159" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -31758,7 +31782,7 @@
         <v>1.4</v>
       </c>
       <c r="AS159">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT159">
         <v>1.07</v>
@@ -31949,7 +31973,7 @@
         <v>1</v>
       </c>
       <c r="AS160">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT160">
         <v>0.71</v>
@@ -32053,7 +32077,7 @@
         <v>202</v>
       </c>
       <c r="P161" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -32140,7 +32164,7 @@
         <v>1.22</v>
       </c>
       <c r="AS161">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT161">
         <v>1.07</v>
@@ -32244,7 +32268,7 @@
         <v>101</v>
       </c>
       <c r="P162" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q162">
         <v>6</v>
@@ -32334,7 +32358,7 @@
         <v>1.93</v>
       </c>
       <c r="AT162">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AU162">
         <v>2.24</v>
@@ -32525,7 +32549,7 @@
         <v>1.57</v>
       </c>
       <c r="AT163">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="AU163">
         <v>1.88</v>
@@ -32626,7 +32650,7 @@
         <v>204</v>
       </c>
       <c r="P164" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q164">
         <v>8</v>
@@ -32716,7 +32740,7 @@
         <v>1.43</v>
       </c>
       <c r="AT164">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU164">
         <v>1.94</v>
@@ -32904,7 +32928,7 @@
         <v>1.1</v>
       </c>
       <c r="AS165">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT165">
         <v>1.07</v>
@@ -33008,7 +33032,7 @@
         <v>206</v>
       </c>
       <c r="P166" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q166">
         <v>9</v>
@@ -33098,7 +33122,7 @@
         <v>1.64</v>
       </c>
       <c r="AT166">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU166">
         <v>2.07</v>
@@ -33477,7 +33501,7 @@
         <v>1.5</v>
       </c>
       <c r="AS168">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT168">
         <v>1.07</v>
@@ -33772,7 +33796,7 @@
         <v>210</v>
       </c>
       <c r="P170" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q170">
         <v>6</v>
@@ -33859,10 +33883,10 @@
         <v>1.2</v>
       </c>
       <c r="AS170">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT170">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU170">
         <v>1.34</v>
@@ -33963,7 +33987,7 @@
         <v>211</v>
       </c>
       <c r="P171" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q171">
         <v>9</v>
@@ -34050,7 +34074,7 @@
         <v>0.9</v>
       </c>
       <c r="AS171">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT171">
         <v>0.71</v>
@@ -34154,7 +34178,7 @@
         <v>117</v>
       </c>
       <c r="P172" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q172">
         <v>9</v>
@@ -34345,7 +34369,7 @@
         <v>212</v>
       </c>
       <c r="P173" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q173">
         <v>4</v>
@@ -34536,7 +34560,7 @@
         <v>213</v>
       </c>
       <c r="P174" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q174">
         <v>6</v>
@@ -34626,7 +34650,7 @@
         <v>1</v>
       </c>
       <c r="AT174">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AU174">
         <v>1.41</v>
@@ -34727,7 +34751,7 @@
         <v>214</v>
       </c>
       <c r="P175" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q175">
         <v>12</v>
@@ -34814,7 +34838,7 @@
         <v>1.27</v>
       </c>
       <c r="AS175">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT175">
         <v>1</v>
@@ -34918,7 +34942,7 @@
         <v>215</v>
       </c>
       <c r="P176" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q176">
         <v>1</v>
@@ -35005,10 +35029,10 @@
         <v>2.1</v>
       </c>
       <c r="AS176">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT176">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AU176">
         <v>1.71</v>
@@ -35390,7 +35414,7 @@
         <v>1.57</v>
       </c>
       <c r="AT178">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU178">
         <v>1.92</v>
@@ -35682,7 +35706,7 @@
         <v>219</v>
       </c>
       <c r="P180" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q180">
         <v>11</v>
@@ -35769,7 +35793,7 @@
         <v>0.55</v>
       </c>
       <c r="AS180">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT180">
         <v>0.79</v>
@@ -35873,7 +35897,7 @@
         <v>220</v>
       </c>
       <c r="P181" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q181">
         <v>8</v>
@@ -35963,7 +35987,7 @@
         <v>1.43</v>
       </c>
       <c r="AT181">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="AU181">
         <v>1.93</v>
@@ -36064,7 +36088,7 @@
         <v>221</v>
       </c>
       <c r="P182" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q182">
         <v>8</v>
@@ -36342,7 +36366,7 @@
         <v>1.64</v>
       </c>
       <c r="AS183">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT183">
         <v>1.71</v>
@@ -36446,7 +36470,7 @@
         <v>223</v>
       </c>
       <c r="P184" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q184">
         <v>7</v>
@@ -36727,7 +36751,7 @@
         <v>2.43</v>
       </c>
       <c r="AT185">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU185">
         <v>2.38</v>
@@ -36915,10 +36939,10 @@
         <v>2.64</v>
       </c>
       <c r="AS186">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT186">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AU186">
         <v>1.68</v>
@@ -37019,7 +37043,7 @@
         <v>172</v>
       </c>
       <c r="P187" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -37106,10 +37130,10 @@
         <v>1.91</v>
       </c>
       <c r="AS187">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT187">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AU187">
         <v>1.85</v>
@@ -37682,7 +37706,7 @@
         <v>1.29</v>
       </c>
       <c r="AT190">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="AU190">
         <v>1.62</v>
@@ -37783,7 +37807,7 @@
         <v>228</v>
       </c>
       <c r="P191" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q191">
         <v>6</v>
@@ -37873,7 +37897,7 @@
         <v>1.5</v>
       </c>
       <c r="AT191">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU191">
         <v>1.64</v>
@@ -38061,7 +38085,7 @@
         <v>1.09</v>
       </c>
       <c r="AS192">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT192">
         <v>1.21</v>
@@ -38165,7 +38189,7 @@
         <v>230</v>
       </c>
       <c r="P193" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q193">
         <v>4</v>
@@ -38252,7 +38276,7 @@
         <v>1.17</v>
       </c>
       <c r="AS193">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT193">
         <v>1.07</v>
@@ -38547,7 +38571,7 @@
         <v>86</v>
       </c>
       <c r="P195" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q195">
         <v>4</v>
@@ -38634,7 +38658,7 @@
         <v>1.5</v>
       </c>
       <c r="AS195">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT195">
         <v>1.71</v>
@@ -38738,7 +38762,7 @@
         <v>232</v>
       </c>
       <c r="P196" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q196">
         <v>5</v>
@@ -39019,7 +39043,7 @@
         <v>2.43</v>
       </c>
       <c r="AT197">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU197">
         <v>2.39</v>
@@ -39120,7 +39144,7 @@
         <v>234</v>
       </c>
       <c r="P198" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q198">
         <v>8</v>
@@ -39311,7 +39335,7 @@
         <v>235</v>
       </c>
       <c r="P199" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q199">
         <v>4</v>
@@ -39589,7 +39613,7 @@
         <v>1.17</v>
       </c>
       <c r="AS200">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT200">
         <v>1</v>
@@ -39693,7 +39717,7 @@
         <v>237</v>
       </c>
       <c r="P201" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q201">
         <v>7</v>
@@ -39780,10 +39804,10 @@
         <v>1.33</v>
       </c>
       <c r="AS201">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT201">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU201">
         <v>1.64</v>
@@ -39971,7 +39995,7 @@
         <v>0.75</v>
       </c>
       <c r="AS202">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT202">
         <v>0.71</v>
@@ -40075,7 +40099,7 @@
         <v>86</v>
       </c>
       <c r="P203" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q203">
         <v>2</v>
@@ -40165,7 +40189,7 @@
         <v>2.07</v>
       </c>
       <c r="AT203">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AU203">
         <v>2.32</v>
@@ -40356,7 +40380,7 @@
         <v>1.43</v>
       </c>
       <c r="AT204">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU204">
         <v>1.69</v>
@@ -40457,7 +40481,7 @@
         <v>86</v>
       </c>
       <c r="P205" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q205">
         <v>9</v>
@@ -40544,7 +40568,7 @@
         <v>0.75</v>
       </c>
       <c r="AS205">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT205">
         <v>1.07</v>
@@ -40648,7 +40672,7 @@
         <v>239</v>
       </c>
       <c r="P206" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q206">
         <v>12</v>
@@ -40735,10 +40759,10 @@
         <v>0.08</v>
       </c>
       <c r="AS206">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT206">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="AU206">
         <v>1.33</v>
@@ -40839,7 +40863,7 @@
         <v>86</v>
       </c>
       <c r="P207" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q207">
         <v>8</v>
@@ -40926,7 +40950,7 @@
         <v>1.08</v>
       </c>
       <c r="AS207">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT207">
         <v>1.21</v>
@@ -41030,7 +41054,7 @@
         <v>86</v>
       </c>
       <c r="P208" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q208">
         <v>13</v>
@@ -41117,10 +41141,10 @@
         <v>2.67</v>
       </c>
       <c r="AS208">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT208">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AU208">
         <v>1.82</v>
@@ -41221,7 +41245,7 @@
         <v>86</v>
       </c>
       <c r="P209" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q209">
         <v>3</v>
@@ -41311,7 +41335,7 @@
         <v>1</v>
       </c>
       <c r="AT209">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU209">
         <v>1.39</v>
@@ -42176,7 +42200,7 @@
         <v>241</v>
       </c>
       <c r="P214" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q214">
         <v>6</v>
@@ -42940,7 +42964,7 @@
         <v>244</v>
       </c>
       <c r="P218" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q218">
         <v>4</v>
@@ -43131,7 +43155,7 @@
         <v>245</v>
       </c>
       <c r="P219" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q219">
         <v>11</v>
@@ -43273,6 +43297,1152 @@
       </c>
       <c r="BK219">
         <v>13</v>
+      </c>
+    </row>
+    <row r="220" spans="1:63">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>1566214</v>
+      </c>
+      <c r="C220" t="s">
+        <v>63</v>
+      </c>
+      <c r="D220" t="s">
+        <v>64</v>
+      </c>
+      <c r="E220" s="2">
+        <v>44864.54166666666</v>
+      </c>
+      <c r="F220">
+        <v>28</v>
+      </c>
+      <c r="G220" t="s">
+        <v>77</v>
+      </c>
+      <c r="H220" t="s">
+        <v>72</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>1</v>
+      </c>
+      <c r="K220">
+        <v>1</v>
+      </c>
+      <c r="L220">
+        <v>3</v>
+      </c>
+      <c r="M220">
+        <v>2</v>
+      </c>
+      <c r="N220">
+        <v>5</v>
+      </c>
+      <c r="O220" t="s">
+        <v>246</v>
+      </c>
+      <c r="P220" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q220">
+        <v>2</v>
+      </c>
+      <c r="R220">
+        <v>3</v>
+      </c>
+      <c r="S220">
+        <v>5</v>
+      </c>
+      <c r="T220">
+        <v>3.1</v>
+      </c>
+      <c r="U220">
+        <v>2.25</v>
+      </c>
+      <c r="V220">
+        <v>2.75</v>
+      </c>
+      <c r="W220">
+        <v>1.27</v>
+      </c>
+      <c r="X220">
+        <v>3.5</v>
+      </c>
+      <c r="Y220">
+        <v>2.1</v>
+      </c>
+      <c r="Z220">
+        <v>1.63</v>
+      </c>
+      <c r="AA220">
+        <v>4.6</v>
+      </c>
+      <c r="AB220">
+        <v>1.16</v>
+      </c>
+      <c r="AC220">
+        <v>2.5</v>
+      </c>
+      <c r="AD220">
+        <v>4</v>
+      </c>
+      <c r="AE220">
+        <v>2.43</v>
+      </c>
+      <c r="AF220">
+        <v>1.02</v>
+      </c>
+      <c r="AG220">
+        <v>19</v>
+      </c>
+      <c r="AH220">
+        <v>1.17</v>
+      </c>
+      <c r="AI220">
+        <v>5</v>
+      </c>
+      <c r="AJ220">
+        <v>1.53</v>
+      </c>
+      <c r="AK220">
+        <v>2.55</v>
+      </c>
+      <c r="AL220">
+        <v>1.42</v>
+      </c>
+      <c r="AM220">
+        <v>2.65</v>
+      </c>
+      <c r="AN220">
+        <v>1.57</v>
+      </c>
+      <c r="AO220">
+        <v>1.28</v>
+      </c>
+      <c r="AP220">
+        <v>1.42</v>
+      </c>
+      <c r="AQ220">
+        <v>2.69</v>
+      </c>
+      <c r="AR220">
+        <v>2.08</v>
+      </c>
+      <c r="AS220">
+        <v>2.71</v>
+      </c>
+      <c r="AT220">
+        <v>1.93</v>
+      </c>
+      <c r="AU220">
+        <v>1.89</v>
+      </c>
+      <c r="AV220">
+        <v>2.06</v>
+      </c>
+      <c r="AW220">
+        <v>3.95</v>
+      </c>
+      <c r="AX220">
+        <v>2.36</v>
+      </c>
+      <c r="AY220">
+        <v>7.8</v>
+      </c>
+      <c r="AZ220">
+        <v>1.87</v>
+      </c>
+      <c r="BA220">
+        <v>1.23</v>
+      </c>
+      <c r="BB220">
+        <v>1.46</v>
+      </c>
+      <c r="BC220">
+        <v>1.85</v>
+      </c>
+      <c r="BD220">
+        <v>2.35</v>
+      </c>
+      <c r="BE220">
+        <v>3.14</v>
+      </c>
+      <c r="BF220">
+        <v>5</v>
+      </c>
+      <c r="BG220">
+        <v>3</v>
+      </c>
+      <c r="BH220">
+        <v>8</v>
+      </c>
+      <c r="BI220">
+        <v>6</v>
+      </c>
+      <c r="BJ220">
+        <v>13</v>
+      </c>
+      <c r="BK220">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="221" spans="1:63">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>1566215</v>
+      </c>
+      <c r="C221" t="s">
+        <v>63</v>
+      </c>
+      <c r="D221" t="s">
+        <v>64</v>
+      </c>
+      <c r="E221" s="2">
+        <v>44864.54166666666</v>
+      </c>
+      <c r="F221">
+        <v>28</v>
+      </c>
+      <c r="G221" t="s">
+        <v>74</v>
+      </c>
+      <c r="H221" t="s">
+        <v>65</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>1</v>
+      </c>
+      <c r="K221">
+        <v>1</v>
+      </c>
+      <c r="L221">
+        <v>1</v>
+      </c>
+      <c r="M221">
+        <v>2</v>
+      </c>
+      <c r="N221">
+        <v>3</v>
+      </c>
+      <c r="O221" t="s">
+        <v>223</v>
+      </c>
+      <c r="P221" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q221">
+        <v>4</v>
+      </c>
+      <c r="R221">
+        <v>8</v>
+      </c>
+      <c r="S221">
+        <v>12</v>
+      </c>
+      <c r="T221">
+        <v>3</v>
+      </c>
+      <c r="U221">
+        <v>2.15</v>
+      </c>
+      <c r="V221">
+        <v>3.1</v>
+      </c>
+      <c r="W221">
+        <v>1.33</v>
+      </c>
+      <c r="X221">
+        <v>3</v>
+      </c>
+      <c r="Y221">
+        <v>2.45</v>
+      </c>
+      <c r="Z221">
+        <v>1.49</v>
+      </c>
+      <c r="AA221">
+        <v>5.75</v>
+      </c>
+      <c r="AB221">
+        <v>1.11</v>
+      </c>
+      <c r="AC221">
+        <v>2.44</v>
+      </c>
+      <c r="AD221">
+        <v>3.6</v>
+      </c>
+      <c r="AE221">
+        <v>2.7</v>
+      </c>
+      <c r="AF221">
+        <v>1.03</v>
+      </c>
+      <c r="AG221">
+        <v>15</v>
+      </c>
+      <c r="AH221">
+        <v>1.22</v>
+      </c>
+      <c r="AI221">
+        <v>4.33</v>
+      </c>
+      <c r="AJ221">
+        <v>1.96</v>
+      </c>
+      <c r="AK221">
+        <v>1.87</v>
+      </c>
+      <c r="AL221">
+        <v>1.55</v>
+      </c>
+      <c r="AM221">
+        <v>2.25</v>
+      </c>
+      <c r="AN221">
+        <v>1.47</v>
+      </c>
+      <c r="AO221">
+        <v>1.3</v>
+      </c>
+      <c r="AP221">
+        <v>1.49</v>
+      </c>
+      <c r="AQ221">
+        <v>0.62</v>
+      </c>
+      <c r="AR221">
+        <v>0.77</v>
+      </c>
+      <c r="AS221">
+        <v>0.57</v>
+      </c>
+      <c r="AT221">
+        <v>0.93</v>
+      </c>
+      <c r="AU221">
+        <v>1.37</v>
+      </c>
+      <c r="AV221">
+        <v>1.23</v>
+      </c>
+      <c r="AW221">
+        <v>2.6</v>
+      </c>
+      <c r="AX221">
+        <v>2</v>
+      </c>
+      <c r="AY221">
+        <v>8</v>
+      </c>
+      <c r="AZ221">
+        <v>2.16</v>
+      </c>
+      <c r="BA221">
+        <v>1.15</v>
+      </c>
+      <c r="BB221">
+        <v>1.2</v>
+      </c>
+      <c r="BC221">
+        <v>1.41</v>
+      </c>
+      <c r="BD221">
+        <v>1.7</v>
+      </c>
+      <c r="BE221">
+        <v>2.13</v>
+      </c>
+      <c r="BF221">
+        <v>7</v>
+      </c>
+      <c r="BG221">
+        <v>9</v>
+      </c>
+      <c r="BH221">
+        <v>12</v>
+      </c>
+      <c r="BI221">
+        <v>7</v>
+      </c>
+      <c r="BJ221">
+        <v>19</v>
+      </c>
+      <c r="BK221">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="222" spans="1:63">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>1566216</v>
+      </c>
+      <c r="C222" t="s">
+        <v>63</v>
+      </c>
+      <c r="D222" t="s">
+        <v>64</v>
+      </c>
+      <c r="E222" s="2">
+        <v>44864.54166666666</v>
+      </c>
+      <c r="F222">
+        <v>28</v>
+      </c>
+      <c r="G222" t="s">
+        <v>78</v>
+      </c>
+      <c r="H222" t="s">
+        <v>69</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>2</v>
+      </c>
+      <c r="M222">
+        <v>2</v>
+      </c>
+      <c r="N222">
+        <v>4</v>
+      </c>
+      <c r="O222" t="s">
+        <v>247</v>
+      </c>
+      <c r="P222" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q222">
+        <v>3</v>
+      </c>
+      <c r="R222">
+        <v>4</v>
+      </c>
+      <c r="S222">
+        <v>7</v>
+      </c>
+      <c r="T222">
+        <v>1.68</v>
+      </c>
+      <c r="U222">
+        <v>2.6</v>
+      </c>
+      <c r="V222">
+        <v>7.25</v>
+      </c>
+      <c r="W222">
+        <v>1.26</v>
+      </c>
+      <c r="X222">
+        <v>3.5</v>
+      </c>
+      <c r="Y222">
+        <v>2.2</v>
+      </c>
+      <c r="Z222">
+        <v>1.6</v>
+      </c>
+      <c r="AA222">
+        <v>4.8</v>
+      </c>
+      <c r="AB222">
+        <v>1.15</v>
+      </c>
+      <c r="AC222">
+        <v>1.26</v>
+      </c>
+      <c r="AD222">
+        <v>6.1</v>
+      </c>
+      <c r="AE222">
+        <v>9.5</v>
+      </c>
+      <c r="AF222">
+        <v>1.02</v>
+      </c>
+      <c r="AG222">
+        <v>19</v>
+      </c>
+      <c r="AH222">
+        <v>1.17</v>
+      </c>
+      <c r="AI222">
+        <v>5</v>
+      </c>
+      <c r="AJ222">
+        <v>1.4</v>
+      </c>
+      <c r="AK222">
+        <v>3</v>
+      </c>
+      <c r="AL222">
+        <v>1.95</v>
+      </c>
+      <c r="AM222">
+        <v>1.75</v>
+      </c>
+      <c r="AN222">
+        <v>1.06</v>
+      </c>
+      <c r="AO222">
+        <v>1.14</v>
+      </c>
+      <c r="AP222">
+        <v>3.6</v>
+      </c>
+      <c r="AQ222">
+        <v>2.08</v>
+      </c>
+      <c r="AR222">
+        <v>0.31</v>
+      </c>
+      <c r="AS222">
+        <v>2</v>
+      </c>
+      <c r="AT222">
+        <v>0.36</v>
+      </c>
+      <c r="AU222">
+        <v>1.68</v>
+      </c>
+      <c r="AV222">
+        <v>1.26</v>
+      </c>
+      <c r="AW222">
+        <v>2.94</v>
+      </c>
+      <c r="AX222">
+        <v>1.33</v>
+      </c>
+      <c r="AY222">
+        <v>9.5</v>
+      </c>
+      <c r="AZ222">
+        <v>4.34</v>
+      </c>
+      <c r="BA222">
+        <v>1.17</v>
+      </c>
+      <c r="BB222">
+        <v>1.29</v>
+      </c>
+      <c r="BC222">
+        <v>1.56</v>
+      </c>
+      <c r="BD222">
+        <v>1.98</v>
+      </c>
+      <c r="BE222">
+        <v>2.53</v>
+      </c>
+      <c r="BF222">
+        <v>3</v>
+      </c>
+      <c r="BG222">
+        <v>3</v>
+      </c>
+      <c r="BH222">
+        <v>14</v>
+      </c>
+      <c r="BI222">
+        <v>6</v>
+      </c>
+      <c r="BJ222">
+        <v>17</v>
+      </c>
+      <c r="BK222">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="223" spans="1:63">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>1566211</v>
+      </c>
+      <c r="C223" t="s">
+        <v>63</v>
+      </c>
+      <c r="D223" t="s">
+        <v>64</v>
+      </c>
+      <c r="E223" s="2">
+        <v>44864.54166666666</v>
+      </c>
+      <c r="F223">
+        <v>28</v>
+      </c>
+      <c r="G223" t="s">
+        <v>75</v>
+      </c>
+      <c r="H223" t="s">
+        <v>67</v>
+      </c>
+      <c r="I223">
+        <v>2</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>2</v>
+      </c>
+      <c r="L223">
+        <v>4</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>4</v>
+      </c>
+      <c r="O223" t="s">
+        <v>248</v>
+      </c>
+      <c r="P223" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q223">
+        <v>3</v>
+      </c>
+      <c r="R223">
+        <v>3</v>
+      </c>
+      <c r="S223">
+        <v>6</v>
+      </c>
+      <c r="T223">
+        <v>2.7</v>
+      </c>
+      <c r="U223">
+        <v>2.2</v>
+      </c>
+      <c r="V223">
+        <v>3.4</v>
+      </c>
+      <c r="W223">
+        <v>1.31</v>
+      </c>
+      <c r="X223">
+        <v>3.2</v>
+      </c>
+      <c r="Y223">
+        <v>2.35</v>
+      </c>
+      <c r="Z223">
+        <v>1.51</v>
+      </c>
+      <c r="AA223">
+        <v>5.5</v>
+      </c>
+      <c r="AB223">
+        <v>1.12</v>
+      </c>
+      <c r="AC223">
+        <v>2.19</v>
+      </c>
+      <c r="AD223">
+        <v>3.8</v>
+      </c>
+      <c r="AE223">
+        <v>3</v>
+      </c>
+      <c r="AF223">
+        <v>1.03</v>
+      </c>
+      <c r="AG223">
+        <v>15</v>
+      </c>
+      <c r="AH223">
+        <v>1.22</v>
+      </c>
+      <c r="AI223">
+        <v>4.33</v>
+      </c>
+      <c r="AJ223">
+        <v>1.7</v>
+      </c>
+      <c r="AK223">
+        <v>2.15</v>
+      </c>
+      <c r="AL223">
+        <v>1.53</v>
+      </c>
+      <c r="AM223">
+        <v>2.3</v>
+      </c>
+      <c r="AN223">
+        <v>1.37</v>
+      </c>
+      <c r="AO223">
+        <v>1.28</v>
+      </c>
+      <c r="AP223">
+        <v>1.63</v>
+      </c>
+      <c r="AQ223">
+        <v>1</v>
+      </c>
+      <c r="AR223">
+        <v>1.15</v>
+      </c>
+      <c r="AS223">
+        <v>1.14</v>
+      </c>
+      <c r="AT223">
+        <v>1.07</v>
+      </c>
+      <c r="AU223">
+        <v>1.62</v>
+      </c>
+      <c r="AV223">
+        <v>1.29</v>
+      </c>
+      <c r="AW223">
+        <v>2.91</v>
+      </c>
+      <c r="AX223">
+        <v>1.61</v>
+      </c>
+      <c r="AY223">
+        <v>8.4</v>
+      </c>
+      <c r="AZ223">
+        <v>2.88</v>
+      </c>
+      <c r="BA223">
+        <v>1.08</v>
+      </c>
+      <c r="BB223">
+        <v>1.2</v>
+      </c>
+      <c r="BC223">
+        <v>1.36</v>
+      </c>
+      <c r="BD223">
+        <v>1.64</v>
+      </c>
+      <c r="BE223">
+        <v>2.07</v>
+      </c>
+      <c r="BF223">
+        <v>9</v>
+      </c>
+      <c r="BG223">
+        <v>3</v>
+      </c>
+      <c r="BH223">
+        <v>11</v>
+      </c>
+      <c r="BI223">
+        <v>6</v>
+      </c>
+      <c r="BJ223">
+        <v>20</v>
+      </c>
+      <c r="BK223">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224" spans="1:63">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>1566212</v>
+      </c>
+      <c r="C224" t="s">
+        <v>63</v>
+      </c>
+      <c r="D224" t="s">
+        <v>64</v>
+      </c>
+      <c r="E224" s="2">
+        <v>44864.54166666666</v>
+      </c>
+      <c r="F224">
+        <v>28</v>
+      </c>
+      <c r="G224" t="s">
+        <v>73</v>
+      </c>
+      <c r="H224" t="s">
+        <v>71</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>2</v>
+      </c>
+      <c r="N224">
+        <v>2</v>
+      </c>
+      <c r="O224" t="s">
+        <v>86</v>
+      </c>
+      <c r="P224" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q224">
+        <v>7</v>
+      </c>
+      <c r="R224">
+        <v>5</v>
+      </c>
+      <c r="S224">
+        <v>12</v>
+      </c>
+      <c r="T224">
+        <v>1.95</v>
+      </c>
+      <c r="U224">
+        <v>2.37</v>
+      </c>
+      <c r="V224">
+        <v>5.25</v>
+      </c>
+      <c r="W224">
+        <v>1.29</v>
+      </c>
+      <c r="X224">
+        <v>3.3</v>
+      </c>
+      <c r="Y224">
+        <v>2.3</v>
+      </c>
+      <c r="Z224">
+        <v>1.55</v>
+      </c>
+      <c r="AA224">
+        <v>5.25</v>
+      </c>
+      <c r="AB224">
+        <v>1.13</v>
+      </c>
+      <c r="AC224">
+        <v>1.42</v>
+      </c>
+      <c r="AD224">
+        <v>4.9</v>
+      </c>
+      <c r="AE224">
+        <v>6.6</v>
+      </c>
+      <c r="AF224">
+        <v>1.02</v>
+      </c>
+      <c r="AG224">
+        <v>17</v>
+      </c>
+      <c r="AH224">
+        <v>1.19</v>
+      </c>
+      <c r="AI224">
+        <v>4.75</v>
+      </c>
+      <c r="AJ224">
+        <v>1.65</v>
+      </c>
+      <c r="AK224">
+        <v>2.3</v>
+      </c>
+      <c r="AL224">
+        <v>1.72</v>
+      </c>
+      <c r="AM224">
+        <v>1.98</v>
+      </c>
+      <c r="AN224">
+        <v>1.13</v>
+      </c>
+      <c r="AO224">
+        <v>1.2</v>
+      </c>
+      <c r="AP224">
+        <v>2.55</v>
+      </c>
+      <c r="AQ224">
+        <v>2</v>
+      </c>
+      <c r="AR224">
+        <v>1.23</v>
+      </c>
+      <c r="AS224">
+        <v>1.86</v>
+      </c>
+      <c r="AT224">
+        <v>1.36</v>
+      </c>
+      <c r="AU224">
+        <v>1.77</v>
+      </c>
+      <c r="AV224">
+        <v>1.43</v>
+      </c>
+      <c r="AW224">
+        <v>3.2</v>
+      </c>
+      <c r="AX224">
+        <v>1.19</v>
+      </c>
+      <c r="AY224">
+        <v>11.5</v>
+      </c>
+      <c r="AZ224">
+        <v>6.25</v>
+      </c>
+      <c r="BA224">
+        <v>1.17</v>
+      </c>
+      <c r="BB224">
+        <v>1.25</v>
+      </c>
+      <c r="BC224">
+        <v>1.49</v>
+      </c>
+      <c r="BD224">
+        <v>1.85</v>
+      </c>
+      <c r="BE224">
+        <v>2.32</v>
+      </c>
+      <c r="BF224">
+        <v>0</v>
+      </c>
+      <c r="BG224">
+        <v>6</v>
+      </c>
+      <c r="BH224">
+        <v>11</v>
+      </c>
+      <c r="BI224">
+        <v>4</v>
+      </c>
+      <c r="BJ224">
+        <v>11</v>
+      </c>
+      <c r="BK224">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225" spans="1:63">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>1566217</v>
+      </c>
+      <c r="C225" t="s">
+        <v>63</v>
+      </c>
+      <c r="D225" t="s">
+        <v>64</v>
+      </c>
+      <c r="E225" s="2">
+        <v>44864.625</v>
+      </c>
+      <c r="F225">
+        <v>28</v>
+      </c>
+      <c r="G225" t="s">
+        <v>80</v>
+      </c>
+      <c r="H225" t="s">
+        <v>66</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>2</v>
+      </c>
+      <c r="K225">
+        <v>2</v>
+      </c>
+      <c r="L225">
+        <v>1</v>
+      </c>
+      <c r="M225">
+        <v>4</v>
+      </c>
+      <c r="N225">
+        <v>5</v>
+      </c>
+      <c r="O225" t="s">
+        <v>82</v>
+      </c>
+      <c r="P225" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q225">
+        <v>6</v>
+      </c>
+      <c r="R225">
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <v>6</v>
+      </c>
+      <c r="T225">
+        <v>3.75</v>
+      </c>
+      <c r="U225">
+        <v>2.25</v>
+      </c>
+      <c r="V225">
+        <v>2.4</v>
+      </c>
+      <c r="W225">
+        <v>1.28</v>
+      </c>
+      <c r="X225">
+        <v>3.4</v>
+      </c>
+      <c r="Y225">
+        <v>2.2</v>
+      </c>
+      <c r="Z225">
+        <v>1.58</v>
+      </c>
+      <c r="AA225">
+        <v>5</v>
+      </c>
+      <c r="AB225">
+        <v>1.15</v>
+      </c>
+      <c r="AC225">
+        <v>3.1</v>
+      </c>
+      <c r="AD225">
+        <v>3.45</v>
+      </c>
+      <c r="AE225">
+        <v>2.04</v>
+      </c>
+      <c r="AF225">
+        <v>1.02</v>
+      </c>
+      <c r="AG225">
+        <v>19</v>
+      </c>
+      <c r="AH225">
+        <v>1.18</v>
+      </c>
+      <c r="AI225">
+        <v>5</v>
+      </c>
+      <c r="AJ225">
+        <v>1.49</v>
+      </c>
+      <c r="AK225">
+        <v>2.44</v>
+      </c>
+      <c r="AL225">
+        <v>1.5</v>
+      </c>
+      <c r="AM225">
+        <v>2.37</v>
+      </c>
+      <c r="AN225">
+        <v>1.83</v>
+      </c>
+      <c r="AO225">
+        <v>1.26</v>
+      </c>
+      <c r="AP225">
+        <v>1.28</v>
+      </c>
+      <c r="AQ225">
+        <v>1.46</v>
+      </c>
+      <c r="AR225">
+        <v>2.69</v>
+      </c>
+      <c r="AS225">
+        <v>1.36</v>
+      </c>
+      <c r="AT225">
+        <v>2.71</v>
+      </c>
+      <c r="AU225">
+        <v>1.95</v>
+      </c>
+      <c r="AV225">
+        <v>1.61</v>
+      </c>
+      <c r="AW225">
+        <v>3.56</v>
+      </c>
+      <c r="AX225">
+        <v>2.19</v>
+      </c>
+      <c r="AY225">
+        <v>8</v>
+      </c>
+      <c r="AZ225">
+        <v>1.98</v>
+      </c>
+      <c r="BA225">
+        <v>1.08</v>
+      </c>
+      <c r="BB225">
+        <v>1.27</v>
+      </c>
+      <c r="BC225">
+        <v>1.52</v>
+      </c>
+      <c r="BD225">
+        <v>1.88</v>
+      </c>
+      <c r="BE225">
+        <v>2.42</v>
+      </c>
+      <c r="BF225">
+        <v>5</v>
+      </c>
+      <c r="BG225">
+        <v>6</v>
+      </c>
+      <c r="BH225">
+        <v>12</v>
+      </c>
+      <c r="BI225">
+        <v>2</v>
+      </c>
+      <c r="BJ225">
+        <v>17</v>
+      </c>
+      <c r="BK225">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Norway Eliteserien_2022.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Norway Eliteserien_2022.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="384">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -763,6 +763,48 @@
     <t>['38', '41', '57', '83']</t>
   </si>
   <si>
+    <t>['27', '66']</t>
+  </si>
+  <si>
+    <t>['1', '20', '47', '83', '88']</t>
+  </si>
+  <si>
+    <t>['21', '76']</t>
+  </si>
+  <si>
+    <t>['75', '86']</t>
+  </si>
+  <si>
+    <t>['10', '68']</t>
+  </si>
+  <si>
+    <t>['54']</t>
+  </si>
+  <si>
+    <t>['5', '23', '70', '80', '84']</t>
+  </si>
+  <si>
+    <t>['88']</t>
+  </si>
+  <si>
+    <t>['31']</t>
+  </si>
+  <si>
+    <t>['22', '56', '80']</t>
+  </si>
+  <si>
+    <t>['14', '56']</t>
+  </si>
+  <si>
+    <t>['35', '90']</t>
+  </si>
+  <si>
+    <t>['89', '90+1']</t>
+  </si>
+  <si>
+    <t>['12', '85']</t>
+  </si>
+  <si>
     <t>['65', '70']</t>
   </si>
   <si>
@@ -788,9 +830,6 @@
   </si>
   <si>
     <t>['64']</t>
-  </si>
-  <si>
-    <t>['88']</t>
   </si>
   <si>
     <t>['86']</t>
@@ -991,9 +1030,6 @@
     <t>['61', '90+1']</t>
   </si>
   <si>
-    <t>['54']</t>
-  </si>
-  <si>
     <t>['35', '55']</t>
   </si>
   <si>
@@ -1103,6 +1139,33 @@
   </si>
   <si>
     <t>['3', '44', '59', '83']</t>
+  </si>
+  <si>
+    <t>['23', '45']</t>
+  </si>
+  <si>
+    <t>['7', '27', '56', '63']</t>
+  </si>
+  <si>
+    <t>['72', '80']</t>
+  </si>
+  <si>
+    <t>['13', '33', '55', '67']</t>
+  </si>
+  <si>
+    <t>['42', '47', '75', '87']</t>
+  </si>
+  <si>
+    <t>['6', '37', '90+4']</t>
+  </si>
+  <si>
+    <t>['20', '24']</t>
+  </si>
+  <si>
+    <t>['19', '35']</t>
+  </si>
+  <si>
+    <t>['80', '83']</t>
   </si>
 </sst>
 </file>
@@ -1464,7 +1527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK225"/>
+  <dimension ref="A1:BK241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1708,7 +1771,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1795,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT2">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1986,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT3">
         <v>1</v>
@@ -2177,10 +2240,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT4">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2281,7 +2344,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="Q5">
         <v>11</v>
@@ -2368,10 +2431,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT5">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2559,10 +2622,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT6">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2750,10 +2813,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT7">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2941,10 +3004,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT8">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3045,7 +3108,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3132,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT9">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3323,10 +3386,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT10">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3427,7 +3490,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -3514,10 +3577,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT11">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3618,7 +3681,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3705,10 +3768,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT12">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3809,7 +3872,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3896,10 +3959,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT13">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4087,10 +4150,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.71</v>
+        <v>2.53</v>
       </c>
       <c r="AT14">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4191,7 +4254,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4278,10 +4341,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT15">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4469,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT16">
         <v>1.07</v>
@@ -4660,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT17">
         <v>1.07</v>
@@ -4851,10 +4914,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT18">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU18">
         <v>1.81</v>
@@ -5042,10 +5105,10 @@
         <v>3</v>
       </c>
       <c r="AS19">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT19">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU19">
         <v>1.99</v>
@@ -5233,10 +5296,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT20">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU20">
         <v>2.1</v>
@@ -5424,10 +5487,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT21">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU21">
         <v>1.04</v>
@@ -5528,7 +5591,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="Q22">
         <v>7</v>
@@ -5615,10 +5678,10 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT22">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AU22">
         <v>2.97</v>
@@ -5719,7 +5782,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5806,10 +5869,10 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT23">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU23">
         <v>1.1</v>
@@ -5910,7 +5973,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5997,10 +6060,10 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT24">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU24">
         <v>1.57</v>
@@ -6101,7 +6164,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="Q25">
         <v>8</v>
@@ -6188,7 +6251,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT25">
         <v>1</v>
@@ -6292,7 +6355,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="Q26">
         <v>13</v>
@@ -6379,7 +6442,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT26">
         <v>1.07</v>
@@ -6483,7 +6546,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="Q27">
         <v>11</v>
@@ -6570,10 +6633,10 @@
         <v>1.5</v>
       </c>
       <c r="AS27">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT27">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU27">
         <v>1.75</v>
@@ -6674,7 +6737,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6761,10 +6824,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT28">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU28">
         <v>2.15</v>
@@ -6952,7 +7015,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT29">
         <v>1.07</v>
@@ -7056,7 +7119,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="Q30">
         <v>12</v>
@@ -7143,10 +7206,10 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT30">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU30">
         <v>1.86</v>
@@ -7334,10 +7397,10 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT31">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU31">
         <v>2.41</v>
@@ -7525,10 +7588,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT32">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU32">
         <v>2.44</v>
@@ -7716,10 +7779,10 @@
         <v>3</v>
       </c>
       <c r="AS33">
-        <v>2.71</v>
+        <v>2.53</v>
       </c>
       <c r="AT33">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU33">
         <v>1.39</v>
@@ -7907,7 +7970,7 @@
         <v>1.5</v>
       </c>
       <c r="AS34">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT34">
         <v>1.07</v>
@@ -8011,7 +8074,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -8098,7 +8161,7 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT35">
         <v>1.07</v>
@@ -8289,10 +8352,10 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT36">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU36">
         <v>1.55</v>
@@ -8393,7 +8456,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8480,10 +8543,10 @@
         <v>1.5</v>
       </c>
       <c r="AS37">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT37">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU37">
         <v>2.23</v>
@@ -8671,10 +8734,10 @@
         <v>2</v>
       </c>
       <c r="AS38">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT38">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AU38">
         <v>1.83</v>
@@ -8862,10 +8925,10 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT39">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU39">
         <v>1.65</v>
@@ -9053,10 +9116,10 @@
         <v>0.5</v>
       </c>
       <c r="AS40">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT40">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU40">
         <v>1.27</v>
@@ -9244,10 +9307,10 @@
         <v>1</v>
       </c>
       <c r="AS41">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT41">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU41">
         <v>2.03</v>
@@ -9348,7 +9411,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9435,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT42">
         <v>1</v>
@@ -9626,7 +9689,7 @@
         <v>1</v>
       </c>
       <c r="AS43">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT43">
         <v>1.07</v>
@@ -9817,10 +9880,10 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT44">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU44">
         <v>1.97</v>
@@ -10008,10 +10071,10 @@
         <v>1.5</v>
       </c>
       <c r="AS45">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT45">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU45">
         <v>2.14</v>
@@ -10199,7 +10262,7 @@
         <v>1</v>
       </c>
       <c r="AS46">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT46">
         <v>1</v>
@@ -10390,10 +10453,10 @@
         <v>3</v>
       </c>
       <c r="AS47">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT47">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU47">
         <v>1.6</v>
@@ -10494,7 +10557,7 @@
         <v>86</v>
       </c>
       <c r="P48" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10581,10 +10644,10 @@
         <v>2</v>
       </c>
       <c r="AS48">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT48">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU48">
         <v>1.59</v>
@@ -10685,7 +10748,7 @@
         <v>86</v>
       </c>
       <c r="P49" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="Q49">
         <v>12</v>
@@ -10772,10 +10835,10 @@
         <v>1.33</v>
       </c>
       <c r="AS49">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT49">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU49">
         <v>2.11</v>
@@ -10963,10 +11026,10 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT50">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU50">
         <v>2.04</v>
@@ -11067,7 +11130,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -11154,10 +11217,10 @@
         <v>0.67</v>
       </c>
       <c r="AS51">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT51">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU51">
         <v>2.02</v>
@@ -11258,7 +11321,7 @@
         <v>86</v>
       </c>
       <c r="P52" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="Q52">
         <v>10</v>
@@ -11345,7 +11408,7 @@
         <v>0</v>
       </c>
       <c r="AS52">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT52">
         <v>1.07</v>
@@ -11536,10 +11599,10 @@
         <v>2</v>
       </c>
       <c r="AS53">
-        <v>2.71</v>
+        <v>2.53</v>
       </c>
       <c r="AT53">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU53">
         <v>1.46</v>
@@ -11640,7 +11703,7 @@
         <v>122</v>
       </c>
       <c r="P54" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="Q54">
         <v>10</v>
@@ -11727,10 +11790,10 @@
         <v>0.5</v>
       </c>
       <c r="AS54">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT54">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU54">
         <v>2.59</v>
@@ -11831,7 +11894,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11918,10 +11981,10 @@
         <v>1.67</v>
       </c>
       <c r="AS55">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT55">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AU55">
         <v>1.33</v>
@@ -12109,10 +12172,10 @@
         <v>0</v>
       </c>
       <c r="AS56">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT56">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU56">
         <v>2.35</v>
@@ -12213,7 +12276,7 @@
         <v>125</v>
       </c>
       <c r="P57" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="Q57">
         <v>9</v>
@@ -12300,10 +12363,10 @@
         <v>1.5</v>
       </c>
       <c r="AS57">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT57">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU57">
         <v>1.5</v>
@@ -12404,7 +12467,7 @@
         <v>126</v>
       </c>
       <c r="P58" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12491,7 +12554,7 @@
         <v>0.75</v>
       </c>
       <c r="AS58">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT58">
         <v>1</v>
@@ -12595,7 +12658,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="Q59">
         <v>12</v>
@@ -12682,7 +12745,7 @@
         <v>1</v>
       </c>
       <c r="AS59">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT59">
         <v>1.07</v>
@@ -12873,10 +12936,10 @@
         <v>2</v>
       </c>
       <c r="AS60">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT60">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU60">
         <v>2.01</v>
@@ -13064,10 +13127,10 @@
         <v>0</v>
       </c>
       <c r="AS61">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT61">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU61">
         <v>1.18</v>
@@ -13168,7 +13231,7 @@
         <v>85</v>
       </c>
       <c r="P62" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13255,10 +13318,10 @@
         <v>0.67</v>
       </c>
       <c r="AS62">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT62">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU62">
         <v>1.77</v>
@@ -13359,7 +13422,7 @@
         <v>128</v>
       </c>
       <c r="P63" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="Q63">
         <v>6</v>
@@ -13446,10 +13509,10 @@
         <v>1.75</v>
       </c>
       <c r="AS63">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT63">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU63">
         <v>1.98</v>
@@ -13637,10 +13700,10 @@
         <v>0.67</v>
       </c>
       <c r="AS64">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT64">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU64">
         <v>2.23</v>
@@ -13741,7 +13804,7 @@
         <v>86</v>
       </c>
       <c r="P65" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13828,10 +13891,10 @@
         <v>1.5</v>
       </c>
       <c r="AS65">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT65">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU65">
         <v>2</v>
@@ -14019,10 +14082,10 @@
         <v>0</v>
       </c>
       <c r="AS66">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT66">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU66">
         <v>1.58</v>
@@ -14210,7 +14273,7 @@
         <v>0.6</v>
       </c>
       <c r="AS67">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT67">
         <v>1</v>
@@ -14314,7 +14377,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="Q68">
         <v>7</v>
@@ -14401,7 +14464,7 @@
         <v>0.75</v>
       </c>
       <c r="AS68">
-        <v>2.71</v>
+        <v>2.53</v>
       </c>
       <c r="AT68">
         <v>1.07</v>
@@ -14505,7 +14568,7 @@
         <v>133</v>
       </c>
       <c r="P69" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -14592,10 +14655,10 @@
         <v>2.33</v>
       </c>
       <c r="AS69">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT69">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU69">
         <v>2.03</v>
@@ -14696,7 +14759,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14783,10 +14846,10 @@
         <v>0.75</v>
       </c>
       <c r="AS70">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT70">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU70">
         <v>1.81</v>
@@ -14887,7 +14950,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -14974,10 +15037,10 @@
         <v>1.75</v>
       </c>
       <c r="AS71">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT71">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU71">
         <v>1.86</v>
@@ -15078,7 +15141,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="Q72">
         <v>5</v>
@@ -15165,7 +15228,7 @@
         <v>1.4</v>
       </c>
       <c r="AS72">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT72">
         <v>1.07</v>
@@ -15269,7 +15332,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="Q73">
         <v>11</v>
@@ -15356,10 +15419,10 @@
         <v>2</v>
       </c>
       <c r="AS73">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT73">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU73">
         <v>1.14</v>
@@ -15460,7 +15523,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -15547,10 +15610,10 @@
         <v>2</v>
       </c>
       <c r="AS74">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT74">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AU74">
         <v>1.83</v>
@@ -15738,10 +15801,10 @@
         <v>2</v>
       </c>
       <c r="AS75">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT75">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU75">
         <v>2.28</v>
@@ -15842,7 +15905,7 @@
         <v>86</v>
       </c>
       <c r="P76" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="Q76">
         <v>14</v>
@@ -15929,10 +15992,10 @@
         <v>0.75</v>
       </c>
       <c r="AS76">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT76">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU76">
         <v>2.46</v>
@@ -16120,10 +16183,10 @@
         <v>1.6</v>
       </c>
       <c r="AS77">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT77">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU77">
         <v>2.08</v>
@@ -16224,7 +16287,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="Q78">
         <v>4</v>
@@ -16311,10 +16374,10 @@
         <v>1.5</v>
       </c>
       <c r="AS78">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT78">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU78">
         <v>1.89</v>
@@ -16415,7 +16478,7 @@
         <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="Q79">
         <v>15</v>
@@ -16502,10 +16565,10 @@
         <v>1.8</v>
       </c>
       <c r="AS79">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT79">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU79">
         <v>2.16</v>
@@ -16606,7 +16669,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="Q80">
         <v>10</v>
@@ -16693,10 +16756,10 @@
         <v>0.75</v>
       </c>
       <c r="AS80">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT80">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU80">
         <v>1.29</v>
@@ -16797,7 +16860,7 @@
         <v>142</v>
       </c>
       <c r="P81" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -16884,10 +16947,10 @@
         <v>1.2</v>
       </c>
       <c r="AS81">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT81">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU81">
         <v>1.7</v>
@@ -16988,7 +17051,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -17075,10 +17138,10 @@
         <v>2.5</v>
       </c>
       <c r="AS82">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT82">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU82">
         <v>2.13</v>
@@ -17179,7 +17242,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="Q83">
         <v>12</v>
@@ -17266,7 +17329,7 @@
         <v>0.8</v>
       </c>
       <c r="AS83">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT83">
         <v>1.07</v>
@@ -17370,7 +17433,7 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17457,7 +17520,7 @@
         <v>0.5</v>
       </c>
       <c r="AS84">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT84">
         <v>1</v>
@@ -17561,7 +17624,7 @@
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17648,10 +17711,10 @@
         <v>1.4</v>
       </c>
       <c r="AS85">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT85">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU85">
         <v>1.56</v>
@@ -17839,10 +17902,10 @@
         <v>0</v>
       </c>
       <c r="AS86">
-        <v>2.71</v>
+        <v>2.53</v>
       </c>
       <c r="AT86">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU86">
         <v>1.74</v>
@@ -17943,7 +18006,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -18030,10 +18093,10 @@
         <v>2.25</v>
       </c>
       <c r="AS87">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT87">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU87">
         <v>1.62</v>
@@ -18221,10 +18284,10 @@
         <v>1.8</v>
       </c>
       <c r="AS88">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT88">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AU88">
         <v>1.87</v>
@@ -18325,7 +18388,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="Q89">
         <v>3</v>
@@ -18412,10 +18475,10 @@
         <v>0.75</v>
       </c>
       <c r="AS89">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT89">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU89">
         <v>1.35</v>
@@ -18603,7 +18666,7 @@
         <v>1.33</v>
       </c>
       <c r="AS90">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT90">
         <v>1.07</v>
@@ -18707,7 +18770,7 @@
         <v>86</v>
       </c>
       <c r="P91" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="Q91">
         <v>10</v>
@@ -18794,10 +18857,10 @@
         <v>1.2</v>
       </c>
       <c r="AS91">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT91">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU91">
         <v>2.43</v>
@@ -18985,7 +19048,7 @@
         <v>0.83</v>
       </c>
       <c r="AS92">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT92">
         <v>1.07</v>
@@ -19089,7 +19152,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="Q93">
         <v>1</v>
@@ -19176,10 +19239,10 @@
         <v>1.8</v>
       </c>
       <c r="AS93">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT93">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU93">
         <v>2.15</v>
@@ -19367,10 +19430,10 @@
         <v>2.6</v>
       </c>
       <c r="AS94">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT94">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU94">
         <v>1.64</v>
@@ -19471,7 +19534,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -19558,10 +19621,10 @@
         <v>1.5</v>
       </c>
       <c r="AS95">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT95">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AU95">
         <v>1.7</v>
@@ -19662,7 +19725,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -19749,10 +19812,10 @@
         <v>2</v>
       </c>
       <c r="AS96">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT96">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU96">
         <v>2.08</v>
@@ -19940,10 +20003,10 @@
         <v>1.33</v>
       </c>
       <c r="AS97">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT97">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU97">
         <v>1.74</v>
@@ -20131,10 +20194,10 @@
         <v>1</v>
       </c>
       <c r="AS98">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT98">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU98">
         <v>2.19</v>
@@ -20322,10 +20385,10 @@
         <v>0</v>
       </c>
       <c r="AS99">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT99">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU99">
         <v>2.15</v>
@@ -20426,7 +20489,7 @@
         <v>157</v>
       </c>
       <c r="P100" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20513,10 +20576,10 @@
         <v>1.8</v>
       </c>
       <c r="AS100">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT100">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU100">
         <v>1.96</v>
@@ -20704,10 +20767,10 @@
         <v>1.5</v>
       </c>
       <c r="AS101">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT101">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU101">
         <v>1.9</v>
@@ -20895,10 +20958,10 @@
         <v>0</v>
       </c>
       <c r="AS102">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT102">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU102">
         <v>2.57</v>
@@ -20999,7 +21062,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="Q103">
         <v>4</v>
@@ -21086,10 +21149,10 @@
         <v>1.17</v>
       </c>
       <c r="AS103">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT103">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU103">
         <v>1.68</v>
@@ -21190,7 +21253,7 @@
         <v>159</v>
       </c>
       <c r="P104" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="Q104">
         <v>7</v>
@@ -21277,10 +21340,10 @@
         <v>0.2</v>
       </c>
       <c r="AS104">
-        <v>2.71</v>
+        <v>2.53</v>
       </c>
       <c r="AT104">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU104">
         <v>1.72</v>
@@ -21468,10 +21531,10 @@
         <v>0.8</v>
       </c>
       <c r="AS105">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT105">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU105">
         <v>2.21</v>
@@ -21659,10 +21722,10 @@
         <v>1.2</v>
       </c>
       <c r="AS106">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT106">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU106">
         <v>1.7</v>
@@ -21763,7 +21826,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21850,7 +21913,7 @@
         <v>1.14</v>
       </c>
       <c r="AS107">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT107">
         <v>1.07</v>
@@ -21954,7 +22017,7 @@
         <v>156</v>
       </c>
       <c r="P108" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -22041,10 +22104,10 @@
         <v>1.71</v>
       </c>
       <c r="AS108">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT108">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU108">
         <v>1.4</v>
@@ -22145,7 +22208,7 @@
         <v>86</v>
       </c>
       <c r="P109" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -22232,10 +22295,10 @@
         <v>1.5</v>
       </c>
       <c r="AS109">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT109">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU109">
         <v>1.55</v>
@@ -22423,7 +22486,7 @@
         <v>0.71</v>
       </c>
       <c r="AS110">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT110">
         <v>1.07</v>
@@ -22614,7 +22677,7 @@
         <v>0.57</v>
       </c>
       <c r="AS111">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT111">
         <v>1</v>
@@ -22718,7 +22781,7 @@
         <v>162</v>
       </c>
       <c r="P112" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="Q112">
         <v>2</v>
@@ -22805,10 +22868,10 @@
         <v>1.71</v>
       </c>
       <c r="AS112">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT112">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AU112">
         <v>2</v>
@@ -22996,10 +23059,10 @@
         <v>0</v>
       </c>
       <c r="AS113">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT113">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU113">
         <v>2.09</v>
@@ -23187,10 +23250,10 @@
         <v>1</v>
       </c>
       <c r="AS114">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT114">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU114">
         <v>1.71</v>
@@ -23378,10 +23441,10 @@
         <v>0.17</v>
       </c>
       <c r="AS115">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT115">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU115">
         <v>1.97</v>
@@ -23569,10 +23632,10 @@
         <v>0.67</v>
       </c>
       <c r="AS116">
-        <v>2.71</v>
+        <v>2.53</v>
       </c>
       <c r="AT116">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU116">
         <v>1.9</v>
@@ -23673,7 +23736,7 @@
         <v>166</v>
       </c>
       <c r="P117" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -23760,10 +23823,10 @@
         <v>2.33</v>
       </c>
       <c r="AS117">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT117">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU117">
         <v>1.31</v>
@@ -23864,7 +23927,7 @@
         <v>167</v>
       </c>
       <c r="P118" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -23951,10 +24014,10 @@
         <v>1.43</v>
       </c>
       <c r="AS118">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT118">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU118">
         <v>2.55</v>
@@ -24055,7 +24118,7 @@
         <v>168</v>
       </c>
       <c r="P119" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24142,10 +24205,10 @@
         <v>1.43</v>
       </c>
       <c r="AS119">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT119">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU119">
         <v>1.55</v>
@@ -24333,10 +24396,10 @@
         <v>1.5</v>
       </c>
       <c r="AS120">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT120">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU120">
         <v>1.66</v>
@@ -24524,10 +24587,10 @@
         <v>1.17</v>
       </c>
       <c r="AS121">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT121">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU121">
         <v>1.9</v>
@@ -24715,10 +24778,10 @@
         <v>0</v>
       </c>
       <c r="AS122">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT122">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU122">
         <v>1.36</v>
@@ -24819,7 +24882,7 @@
         <v>172</v>
       </c>
       <c r="P123" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="Q123">
         <v>6</v>
@@ -24906,10 +24969,10 @@
         <v>1.71</v>
       </c>
       <c r="AS123">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT123">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU123">
         <v>1.64</v>
@@ -25097,10 +25160,10 @@
         <v>0</v>
       </c>
       <c r="AS124">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT124">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU124">
         <v>1.63</v>
@@ -25201,7 +25264,7 @@
         <v>173</v>
       </c>
       <c r="P125" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="Q125">
         <v>7</v>
@@ -25288,10 +25351,10 @@
         <v>1</v>
       </c>
       <c r="AS125">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT125">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU125">
         <v>1.92</v>
@@ -25479,10 +25542,10 @@
         <v>1.88</v>
       </c>
       <c r="AS126">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT126">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU126">
         <v>1.82</v>
@@ -25583,7 +25646,7 @@
         <v>175</v>
       </c>
       <c r="P127" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -25670,7 +25733,7 @@
         <v>0.88</v>
       </c>
       <c r="AS127">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT127">
         <v>1</v>
@@ -25861,10 +25924,10 @@
         <v>1.14</v>
       </c>
       <c r="AS128">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT128">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU128">
         <v>2.27</v>
@@ -25965,7 +26028,7 @@
         <v>86</v>
       </c>
       <c r="P129" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -26052,10 +26115,10 @@
         <v>1.88</v>
       </c>
       <c r="AS129">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT129">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AU129">
         <v>1.97</v>
@@ -26243,10 +26306,10 @@
         <v>0.57</v>
       </c>
       <c r="AS130">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT130">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU130">
         <v>1.62</v>
@@ -26434,10 +26497,10 @@
         <v>1.38</v>
       </c>
       <c r="AS131">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT131">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU131">
         <v>2.1</v>
@@ -26625,10 +26688,10 @@
         <v>1.14</v>
       </c>
       <c r="AS132">
-        <v>2.71</v>
+        <v>2.53</v>
       </c>
       <c r="AT132">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU132">
         <v>1.83</v>
@@ -26729,7 +26792,7 @@
         <v>180</v>
       </c>
       <c r="P133" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -26816,10 +26879,10 @@
         <v>1.25</v>
       </c>
       <c r="AS133">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT133">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU133">
         <v>1.37</v>
@@ -26920,7 +26983,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -27007,10 +27070,10 @@
         <v>0.63</v>
       </c>
       <c r="AS134">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT134">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU134">
         <v>1.65</v>
@@ -27111,7 +27174,7 @@
         <v>181</v>
       </c>
       <c r="P135" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="Q135">
         <v>9</v>
@@ -27198,10 +27261,10 @@
         <v>2.43</v>
       </c>
       <c r="AS135">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT135">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU135">
         <v>1.68</v>
@@ -27389,10 +27452,10 @@
         <v>0.14</v>
       </c>
       <c r="AS136">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT136">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU136">
         <v>1.64</v>
@@ -27493,7 +27556,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27580,10 +27643,10 @@
         <v>1.29</v>
       </c>
       <c r="AS137">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT137">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU137">
         <v>1.91</v>
@@ -27771,7 +27834,7 @@
         <v>1.13</v>
       </c>
       <c r="AS138">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT138">
         <v>1.07</v>
@@ -27875,7 +27938,7 @@
         <v>185</v>
       </c>
       <c r="P139" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="Q139">
         <v>1</v>
@@ -27962,10 +28025,10 @@
         <v>1.22</v>
       </c>
       <c r="AS139">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT139">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU139">
         <v>1.34</v>
@@ -28066,7 +28129,7 @@
         <v>186</v>
       </c>
       <c r="P140" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="Q140">
         <v>6</v>
@@ -28153,10 +28216,10 @@
         <v>1.88</v>
       </c>
       <c r="AS140">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT140">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU140">
         <v>1.97</v>
@@ -28257,7 +28320,7 @@
         <v>141</v>
       </c>
       <c r="P141" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="Q141">
         <v>6</v>
@@ -28344,7 +28407,7 @@
         <v>0.63</v>
       </c>
       <c r="AS141">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT141">
         <v>1.07</v>
@@ -28535,10 +28598,10 @@
         <v>2</v>
       </c>
       <c r="AS142">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT142">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AU142">
         <v>1.37</v>
@@ -28726,10 +28789,10 @@
         <v>0.33</v>
       </c>
       <c r="AS143">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT143">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU143">
         <v>1.71</v>
@@ -28917,7 +28980,7 @@
         <v>1.11</v>
       </c>
       <c r="AS144">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT144">
         <v>1</v>
@@ -29108,10 +29171,10 @@
         <v>1.13</v>
       </c>
       <c r="AS145">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT145">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU145">
         <v>1.95</v>
@@ -29212,7 +29275,7 @@
         <v>190</v>
       </c>
       <c r="P146" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="Q146">
         <v>6</v>
@@ -29299,10 +29362,10 @@
         <v>1</v>
       </c>
       <c r="AS146">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT146">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU146">
         <v>2.2</v>
@@ -29490,10 +29553,10 @@
         <v>0.67</v>
       </c>
       <c r="AS147">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT147">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU147">
         <v>2.53</v>
@@ -29681,10 +29744,10 @@
         <v>1.67</v>
       </c>
       <c r="AS148">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT148">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU148">
         <v>1.66</v>
@@ -29872,10 +29935,10 @@
         <v>0.13</v>
       </c>
       <c r="AS149">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT149">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU149">
         <v>1.93</v>
@@ -29976,7 +30039,7 @@
         <v>86</v>
       </c>
       <c r="P150" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -30063,10 +30126,10 @@
         <v>2.5</v>
       </c>
       <c r="AS150">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT150">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU150">
         <v>1.73</v>
@@ -30254,7 +30317,7 @@
         <v>1</v>
       </c>
       <c r="AS151">
-        <v>2.71</v>
+        <v>2.53</v>
       </c>
       <c r="AT151">
         <v>1.07</v>
@@ -30358,7 +30421,7 @@
         <v>86</v>
       </c>
       <c r="P152" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="Q152">
         <v>2</v>
@@ -30445,10 +30508,10 @@
         <v>2</v>
       </c>
       <c r="AS152">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT152">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU152">
         <v>1.44</v>
@@ -30549,7 +30612,7 @@
         <v>195</v>
       </c>
       <c r="P153" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="Q153">
         <v>6</v>
@@ -30636,10 +30699,10 @@
         <v>1</v>
       </c>
       <c r="AS153">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT153">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU153">
         <v>1.36</v>
@@ -30740,7 +30803,7 @@
         <v>172</v>
       </c>
       <c r="P154" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -30827,10 +30890,10 @@
         <v>1.22</v>
       </c>
       <c r="AS154">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT154">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU154">
         <v>1.66</v>
@@ -31018,7 +31081,7 @@
         <v>0.89</v>
       </c>
       <c r="AS155">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT155">
         <v>1.07</v>
@@ -31122,7 +31185,7 @@
         <v>197</v>
       </c>
       <c r="P156" t="s">
-        <v>325</v>
+        <v>254</v>
       </c>
       <c r="Q156">
         <v>9</v>
@@ -31209,10 +31272,10 @@
         <v>0.3</v>
       </c>
       <c r="AS156">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT156">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU156">
         <v>1.75</v>
@@ -31313,7 +31376,7 @@
         <v>198</v>
       </c>
       <c r="P157" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="Q157">
         <v>5</v>
@@ -31400,10 +31463,10 @@
         <v>1</v>
       </c>
       <c r="AS157">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT157">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU157">
         <v>2.31</v>
@@ -31504,7 +31567,7 @@
         <v>199</v>
       </c>
       <c r="P158" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -31591,7 +31654,7 @@
         <v>1.1</v>
       </c>
       <c r="AS158">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT158">
         <v>1</v>
@@ -31695,7 +31758,7 @@
         <v>200</v>
       </c>
       <c r="P159" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -31782,10 +31845,10 @@
         <v>1.4</v>
       </c>
       <c r="AS159">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT159">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU159">
         <v>1.71</v>
@@ -31973,10 +32036,10 @@
         <v>1</v>
       </c>
       <c r="AS160">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT160">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU160">
         <v>1.73</v>
@@ -32077,7 +32140,7 @@
         <v>202</v>
       </c>
       <c r="P161" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -32164,10 +32227,10 @@
         <v>1.22</v>
       </c>
       <c r="AS161">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT161">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU161">
         <v>1.65</v>
@@ -32268,7 +32331,7 @@
         <v>101</v>
       </c>
       <c r="P162" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="Q162">
         <v>6</v>
@@ -32355,10 +32418,10 @@
         <v>2.56</v>
       </c>
       <c r="AS162">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT162">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU162">
         <v>2.24</v>
@@ -32546,10 +32609,10 @@
         <v>0.11</v>
       </c>
       <c r="AS163">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT163">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU163">
         <v>1.88</v>
@@ -32650,7 +32713,7 @@
         <v>204</v>
       </c>
       <c r="P164" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="Q164">
         <v>8</v>
@@ -32737,10 +32800,10 @@
         <v>1</v>
       </c>
       <c r="AS164">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT164">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU164">
         <v>1.94</v>
@@ -32928,10 +32991,10 @@
         <v>1.1</v>
       </c>
       <c r="AS165">
-        <v>2.71</v>
+        <v>2.53</v>
       </c>
       <c r="AT165">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU165">
         <v>1.9</v>
@@ -33032,7 +33095,7 @@
         <v>206</v>
       </c>
       <c r="P166" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="Q166">
         <v>9</v>
@@ -33119,7 +33182,7 @@
         <v>0.9</v>
       </c>
       <c r="AS166">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT166">
         <v>1.07</v>
@@ -33310,10 +33373,10 @@
         <v>0.6</v>
       </c>
       <c r="AS167">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT167">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU167">
         <v>1.73</v>
@@ -33501,10 +33564,10 @@
         <v>1.5</v>
       </c>
       <c r="AS168">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT168">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU168">
         <v>1.59</v>
@@ -33692,10 +33755,10 @@
         <v>1.8</v>
       </c>
       <c r="AS169">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT169">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AU169">
         <v>2.42</v>
@@ -33796,7 +33859,7 @@
         <v>210</v>
       </c>
       <c r="P170" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="Q170">
         <v>6</v>
@@ -33883,10 +33946,10 @@
         <v>1.2</v>
       </c>
       <c r="AS170">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT170">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU170">
         <v>1.34</v>
@@ -33987,7 +34050,7 @@
         <v>211</v>
       </c>
       <c r="P171" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="Q171">
         <v>9</v>
@@ -34074,10 +34137,10 @@
         <v>0.9</v>
       </c>
       <c r="AS171">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT171">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU171">
         <v>1.81</v>
@@ -34178,7 +34241,7 @@
         <v>117</v>
       </c>
       <c r="P172" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="Q172">
         <v>9</v>
@@ -34265,10 +34328,10 @@
         <v>0.9</v>
       </c>
       <c r="AS172">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT172">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU172">
         <v>1.7</v>
@@ -34369,7 +34432,7 @@
         <v>212</v>
       </c>
       <c r="P173" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="Q173">
         <v>4</v>
@@ -34456,10 +34519,10 @@
         <v>1</v>
       </c>
       <c r="AS173">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT173">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU173">
         <v>1.61</v>
@@ -34560,7 +34623,7 @@
         <v>213</v>
       </c>
       <c r="P174" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="Q174">
         <v>6</v>
@@ -34647,10 +34710,10 @@
         <v>2.6</v>
       </c>
       <c r="AS174">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT174">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU174">
         <v>1.41</v>
@@ -34751,7 +34814,7 @@
         <v>214</v>
       </c>
       <c r="P175" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="Q175">
         <v>12</v>
@@ -34838,7 +34901,7 @@
         <v>1.27</v>
       </c>
       <c r="AS175">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT175">
         <v>1</v>
@@ -34942,7 +35005,7 @@
         <v>215</v>
       </c>
       <c r="P176" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="Q176">
         <v>1</v>
@@ -35029,10 +35092,10 @@
         <v>2.1</v>
       </c>
       <c r="AS176">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT176">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU176">
         <v>1.71</v>
@@ -35220,10 +35283,10 @@
         <v>1.27</v>
       </c>
       <c r="AS177">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT177">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU177">
         <v>1.72</v>
@@ -35411,10 +35474,10 @@
         <v>0.9</v>
       </c>
       <c r="AS178">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT178">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU178">
         <v>1.92</v>
@@ -35602,10 +35665,10 @@
         <v>1.36</v>
       </c>
       <c r="AS179">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT179">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU179">
         <v>2.29</v>
@@ -35706,7 +35769,7 @@
         <v>219</v>
       </c>
       <c r="P180" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="Q180">
         <v>11</v>
@@ -35793,10 +35856,10 @@
         <v>0.55</v>
       </c>
       <c r="AS180">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT180">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU180">
         <v>2.05</v>
@@ -35897,7 +35960,7 @@
         <v>220</v>
       </c>
       <c r="P181" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="Q181">
         <v>8</v>
@@ -35984,10 +36047,10 @@
         <v>0.1</v>
       </c>
       <c r="AS181">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT181">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU181">
         <v>1.93</v>
@@ -36088,7 +36151,7 @@
         <v>221</v>
       </c>
       <c r="P182" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="Q182">
         <v>8</v>
@@ -36175,10 +36238,10 @@
         <v>0.36</v>
       </c>
       <c r="AS182">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT182">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU182">
         <v>2.03</v>
@@ -36366,10 +36429,10 @@
         <v>1.64</v>
       </c>
       <c r="AS183">
-        <v>2.71</v>
+        <v>2.53</v>
       </c>
       <c r="AT183">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AU183">
         <v>1.96</v>
@@ -36470,7 +36533,7 @@
         <v>223</v>
       </c>
       <c r="P184" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="Q184">
         <v>7</v>
@@ -36557,7 +36620,7 @@
         <v>0.8</v>
       </c>
       <c r="AS184">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT184">
         <v>1.07</v>
@@ -36748,7 +36811,7 @@
         <v>1.09</v>
       </c>
       <c r="AS185">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT185">
         <v>1.07</v>
@@ -36939,10 +37002,10 @@
         <v>2.64</v>
       </c>
       <c r="AS186">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT186">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU186">
         <v>1.68</v>
@@ -37043,7 +37106,7 @@
         <v>172</v>
       </c>
       <c r="P187" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -37130,10 +37193,10 @@
         <v>1.91</v>
       </c>
       <c r="AS187">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT187">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU187">
         <v>1.85</v>
@@ -37321,10 +37384,10 @@
         <v>0.82</v>
       </c>
       <c r="AS188">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT188">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU188">
         <v>2.3</v>
@@ -37512,10 +37575,10 @@
         <v>1.17</v>
       </c>
       <c r="AS189">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT189">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU189">
         <v>1.7</v>
@@ -37703,10 +37766,10 @@
         <v>0.09</v>
       </c>
       <c r="AS190">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT190">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU190">
         <v>1.62</v>
@@ -37807,7 +37870,7 @@
         <v>228</v>
       </c>
       <c r="P191" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="Q191">
         <v>6</v>
@@ -37894,10 +37957,10 @@
         <v>1.36</v>
       </c>
       <c r="AS191">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT191">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU191">
         <v>1.64</v>
@@ -38085,10 +38148,10 @@
         <v>1.09</v>
       </c>
       <c r="AS192">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT192">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU192">
         <v>1.34</v>
@@ -38189,7 +38252,7 @@
         <v>230</v>
       </c>
       <c r="P193" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="Q193">
         <v>4</v>
@@ -38276,10 +38339,10 @@
         <v>1.17</v>
       </c>
       <c r="AS193">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT193">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU193">
         <v>1.62</v>
@@ -38467,7 +38530,7 @@
         <v>0.82</v>
       </c>
       <c r="AS194">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT194">
         <v>1.07</v>
@@ -38571,7 +38634,7 @@
         <v>86</v>
       </c>
       <c r="P195" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="Q195">
         <v>4</v>
@@ -38658,10 +38721,10 @@
         <v>1.5</v>
       </c>
       <c r="AS195">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT195">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AU195">
         <v>2.02</v>
@@ -38762,7 +38825,7 @@
         <v>232</v>
       </c>
       <c r="P196" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="Q196">
         <v>5</v>
@@ -38849,10 +38912,10 @@
         <v>0.33</v>
       </c>
       <c r="AS196">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT196">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU196">
         <v>1.86</v>
@@ -39040,10 +39103,10 @@
         <v>0.82</v>
       </c>
       <c r="AS197">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT197">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU197">
         <v>2.39</v>
@@ -39144,7 +39207,7 @@
         <v>234</v>
       </c>
       <c r="P198" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="Q198">
         <v>8</v>
@@ -39231,10 +39294,10 @@
         <v>1.25</v>
       </c>
       <c r="AS198">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT198">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU198">
         <v>2.16</v>
@@ -39335,7 +39398,7 @@
         <v>235</v>
       </c>
       <c r="P199" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="Q199">
         <v>4</v>
@@ -39422,10 +39485,10 @@
         <v>0.58</v>
       </c>
       <c r="AS199">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT199">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU199">
         <v>2.04</v>
@@ -39613,7 +39676,7 @@
         <v>1.17</v>
       </c>
       <c r="AS200">
-        <v>2.71</v>
+        <v>2.53</v>
       </c>
       <c r="AT200">
         <v>1</v>
@@ -39717,7 +39780,7 @@
         <v>237</v>
       </c>
       <c r="P201" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="Q201">
         <v>7</v>
@@ -39804,10 +39867,10 @@
         <v>1.33</v>
       </c>
       <c r="AS201">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT201">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU201">
         <v>1.64</v>
@@ -39995,10 +40058,10 @@
         <v>0.75</v>
       </c>
       <c r="AS202">
-        <v>2.71</v>
+        <v>2.53</v>
       </c>
       <c r="AT202">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU202">
         <v>1.93</v>
@@ -40099,7 +40162,7 @@
         <v>86</v>
       </c>
       <c r="P203" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="Q203">
         <v>2</v>
@@ -40186,10 +40249,10 @@
         <v>2</v>
       </c>
       <c r="AS203">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT203">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU203">
         <v>2.32</v>
@@ -40377,10 +40440,10 @@
         <v>0.75</v>
       </c>
       <c r="AS204">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT204">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU204">
         <v>1.69</v>
@@ -40481,7 +40544,7 @@
         <v>86</v>
       </c>
       <c r="P205" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="Q205">
         <v>9</v>
@@ -40568,7 +40631,7 @@
         <v>0.75</v>
       </c>
       <c r="AS205">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT205">
         <v>1.07</v>
@@ -40672,7 +40735,7 @@
         <v>239</v>
       </c>
       <c r="P206" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="Q206">
         <v>12</v>
@@ -40759,10 +40822,10 @@
         <v>0.08</v>
       </c>
       <c r="AS206">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT206">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU206">
         <v>1.33</v>
@@ -40863,7 +40926,7 @@
         <v>86</v>
       </c>
       <c r="P207" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="Q207">
         <v>8</v>
@@ -40950,10 +41013,10 @@
         <v>1.08</v>
       </c>
       <c r="AS207">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT207">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU207">
         <v>1.97</v>
@@ -41054,7 +41117,7 @@
         <v>86</v>
       </c>
       <c r="P208" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="Q208">
         <v>13</v>
@@ -41141,10 +41204,10 @@
         <v>2.67</v>
       </c>
       <c r="AS208">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT208">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU208">
         <v>1.82</v>
@@ -41245,7 +41308,7 @@
         <v>86</v>
       </c>
       <c r="P209" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="Q209">
         <v>3</v>
@@ -41332,7 +41395,7 @@
         <v>1</v>
       </c>
       <c r="AS209">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT209">
         <v>1.07</v>
@@ -41523,7 +41586,7 @@
         <v>1.08</v>
       </c>
       <c r="AS210">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT210">
         <v>1</v>
@@ -41714,10 +41777,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS211">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT211">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU211">
         <v>1.65</v>
@@ -41905,10 +41968,10 @@
         <v>1.15</v>
       </c>
       <c r="AS212">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT212">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU212">
         <v>1.67</v>
@@ -42096,10 +42159,10 @@
         <v>1.62</v>
       </c>
       <c r="AS213">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT213">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AU213">
         <v>1.66</v>
@@ -42200,7 +42263,7 @@
         <v>241</v>
       </c>
       <c r="P214" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="Q214">
         <v>6</v>
@@ -42287,10 +42350,10 @@
         <v>1.08</v>
       </c>
       <c r="AS214">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT214">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU214">
         <v>1.41</v>
@@ -42478,10 +42541,10 @@
         <v>0.77</v>
       </c>
       <c r="AS215">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT215">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU215">
         <v>2.01</v>
@@ -42669,10 +42732,10 @@
         <v>0.38</v>
       </c>
       <c r="AS216">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT216">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU216">
         <v>2.18</v>
@@ -42860,10 +42923,10 @@
         <v>1.15</v>
       </c>
       <c r="AS217">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT217">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU217">
         <v>2.32</v>
@@ -42964,7 +43027,7 @@
         <v>244</v>
       </c>
       <c r="P218" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="Q218">
         <v>4</v>
@@ -43051,10 +43114,10 @@
         <v>1.23</v>
       </c>
       <c r="AS218">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT218">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU218">
         <v>2.18</v>
@@ -43155,7 +43218,7 @@
         <v>245</v>
       </c>
       <c r="P219" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="Q219">
         <v>11</v>
@@ -43242,7 +43305,7 @@
         <v>0.92</v>
       </c>
       <c r="AS219">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT219">
         <v>1.07</v>
@@ -43346,7 +43409,7 @@
         <v>246</v>
       </c>
       <c r="P220" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="Q220">
         <v>2</v>
@@ -43433,10 +43496,10 @@
         <v>2.08</v>
       </c>
       <c r="AS220">
-        <v>2.71</v>
+        <v>2.53</v>
       </c>
       <c r="AT220">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU220">
         <v>1.89</v>
@@ -43537,7 +43600,7 @@
         <v>223</v>
       </c>
       <c r="P221" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="Q221">
         <v>4</v>
@@ -43624,10 +43687,10 @@
         <v>0.77</v>
       </c>
       <c r="AS221">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT221">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU221">
         <v>1.37</v>
@@ -43728,7 +43791,7 @@
         <v>247</v>
       </c>
       <c r="P222" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="Q222">
         <v>3</v>
@@ -43815,10 +43878,10 @@
         <v>0.31</v>
       </c>
       <c r="AS222">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT222">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AU222">
         <v>1.68</v>
@@ -44006,7 +44069,7 @@
         <v>1.15</v>
       </c>
       <c r="AS223">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT223">
         <v>1.07</v>
@@ -44110,7 +44173,7 @@
         <v>86</v>
       </c>
       <c r="P224" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="Q224">
         <v>7</v>
@@ -44197,10 +44260,10 @@
         <v>1.23</v>
       </c>
       <c r="AS224">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT224">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU224">
         <v>1.77</v>
@@ -44301,7 +44364,7 @@
         <v>82</v>
       </c>
       <c r="P225" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="Q225">
         <v>6</v>
@@ -44388,10 +44451,10 @@
         <v>2.69</v>
       </c>
       <c r="AS225">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT225">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU225">
         <v>1.95</v>
@@ -44443,6 +44506,3062 @@
       </c>
       <c r="BK225">
         <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:63">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>1566224</v>
+      </c>
+      <c r="C226" t="s">
+        <v>63</v>
+      </c>
+      <c r="D226" t="s">
+        <v>64</v>
+      </c>
+      <c r="E226" s="2">
+        <v>44871.54166666666</v>
+      </c>
+      <c r="F226">
+        <v>29</v>
+      </c>
+      <c r="G226" t="s">
+        <v>66</v>
+      </c>
+      <c r="H226" t="s">
+        <v>74</v>
+      </c>
+      <c r="I226">
+        <v>1</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>1</v>
+      </c>
+      <c r="L226">
+        <v>2</v>
+      </c>
+      <c r="M226">
+        <v>1</v>
+      </c>
+      <c r="N226">
+        <v>3</v>
+      </c>
+      <c r="O226" t="s">
+        <v>249</v>
+      </c>
+      <c r="P226" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q226">
+        <v>8</v>
+      </c>
+      <c r="R226">
+        <v>5</v>
+      </c>
+      <c r="S226">
+        <v>13</v>
+      </c>
+      <c r="T226">
+        <v>1.57</v>
+      </c>
+      <c r="U226">
+        <v>3.1</v>
+      </c>
+      <c r="V226">
+        <v>8</v>
+      </c>
+      <c r="W226">
+        <v>1.17</v>
+      </c>
+      <c r="X226">
+        <v>5</v>
+      </c>
+      <c r="Y226">
+        <v>1.8</v>
+      </c>
+      <c r="Z226">
+        <v>1.91</v>
+      </c>
+      <c r="AA226">
+        <v>3.5</v>
+      </c>
+      <c r="AB226">
+        <v>1.29</v>
+      </c>
+      <c r="AC226">
+        <v>1.13</v>
+      </c>
+      <c r="AD226">
+        <v>6.41</v>
+      </c>
+      <c r="AE226">
+        <v>12.83</v>
+      </c>
+      <c r="AF226">
+        <v>1.01</v>
+      </c>
+      <c r="AG226">
+        <v>29</v>
+      </c>
+      <c r="AH226">
+        <v>1.07</v>
+      </c>
+      <c r="AI226">
+        <v>7</v>
+      </c>
+      <c r="AJ226">
+        <v>1.22</v>
+      </c>
+      <c r="AK226">
+        <v>3.75</v>
+      </c>
+      <c r="AL226">
+        <v>1.67</v>
+      </c>
+      <c r="AM226">
+        <v>2.1</v>
+      </c>
+      <c r="AN226">
+        <v>1.06</v>
+      </c>
+      <c r="AO226">
+        <v>1.1</v>
+      </c>
+      <c r="AP226">
+        <v>4</v>
+      </c>
+      <c r="AQ226">
+        <v>2.43</v>
+      </c>
+      <c r="AR226">
+        <v>1.07</v>
+      </c>
+      <c r="AS226">
+        <v>2.47</v>
+      </c>
+      <c r="AT226">
+        <v>1</v>
+      </c>
+      <c r="AU226">
+        <v>2.27</v>
+      </c>
+      <c r="AV226">
+        <v>1.42</v>
+      </c>
+      <c r="AW226">
+        <v>3.69</v>
+      </c>
+      <c r="AX226">
+        <v>1.05</v>
+      </c>
+      <c r="AY226">
+        <v>14</v>
+      </c>
+      <c r="AZ226">
+        <v>12</v>
+      </c>
+      <c r="BA226">
+        <v>1.07</v>
+      </c>
+      <c r="BB226">
+        <v>1.22</v>
+      </c>
+      <c r="BC226">
+        <v>1.34</v>
+      </c>
+      <c r="BD226">
+        <v>1.62</v>
+      </c>
+      <c r="BE226">
+        <v>2.04</v>
+      </c>
+      <c r="BF226">
+        <v>7</v>
+      </c>
+      <c r="BG226">
+        <v>6</v>
+      </c>
+      <c r="BH226">
+        <v>11</v>
+      </c>
+      <c r="BI226">
+        <v>7</v>
+      </c>
+      <c r="BJ226">
+        <v>18</v>
+      </c>
+      <c r="BK226">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="227" spans="1:63">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>1566226</v>
+      </c>
+      <c r="C227" t="s">
+        <v>63</v>
+      </c>
+      <c r="D227" t="s">
+        <v>64</v>
+      </c>
+      <c r="E227" s="2">
+        <v>44871.54166666666</v>
+      </c>
+      <c r="F227">
+        <v>29</v>
+      </c>
+      <c r="G227" t="s">
+        <v>71</v>
+      </c>
+      <c r="H227" t="s">
+        <v>76</v>
+      </c>
+      <c r="I227">
+        <v>2</v>
+      </c>
+      <c r="J227">
+        <v>1</v>
+      </c>
+      <c r="K227">
+        <v>3</v>
+      </c>
+      <c r="L227">
+        <v>5</v>
+      </c>
+      <c r="M227">
+        <v>1</v>
+      </c>
+      <c r="N227">
+        <v>6</v>
+      </c>
+      <c r="O227" t="s">
+        <v>250</v>
+      </c>
+      <c r="P227" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q227">
+        <v>6</v>
+      </c>
+      <c r="R227">
+        <v>2</v>
+      </c>
+      <c r="S227">
+        <v>8</v>
+      </c>
+      <c r="T227">
+        <v>2.6</v>
+      </c>
+      <c r="U227">
+        <v>2.4</v>
+      </c>
+      <c r="V227">
+        <v>3.6</v>
+      </c>
+      <c r="W227">
+        <v>1.29</v>
+      </c>
+      <c r="X227">
+        <v>3.5</v>
+      </c>
+      <c r="Y227">
+        <v>2.25</v>
+      </c>
+      <c r="Z227">
+        <v>1.57</v>
+      </c>
+      <c r="AA227">
+        <v>5.5</v>
+      </c>
+      <c r="AB227">
+        <v>1.14</v>
+      </c>
+      <c r="AC227">
+        <v>2.27</v>
+      </c>
+      <c r="AD227">
+        <v>3.46</v>
+      </c>
+      <c r="AE227">
+        <v>2.59</v>
+      </c>
+      <c r="AF227">
+        <v>1.04</v>
+      </c>
+      <c r="AG227">
+        <v>10</v>
+      </c>
+      <c r="AH227">
+        <v>1.2</v>
+      </c>
+      <c r="AI227">
+        <v>4.33</v>
+      </c>
+      <c r="AJ227">
+        <v>1.53</v>
+      </c>
+      <c r="AK227">
+        <v>2.35</v>
+      </c>
+      <c r="AL227">
+        <v>1.5</v>
+      </c>
+      <c r="AM227">
+        <v>2.5</v>
+      </c>
+      <c r="AN227">
+        <v>1.27</v>
+      </c>
+      <c r="AO227">
+        <v>1.25</v>
+      </c>
+      <c r="AP227">
+        <v>1.72</v>
+      </c>
+      <c r="AQ227">
+        <v>1.57</v>
+      </c>
+      <c r="AR227">
+        <v>0.71</v>
+      </c>
+      <c r="AS227">
+        <v>1.67</v>
+      </c>
+      <c r="AT227">
+        <v>0.67</v>
+      </c>
+      <c r="AU227">
+        <v>1.79</v>
+      </c>
+      <c r="AV227">
+        <v>1.31</v>
+      </c>
+      <c r="AW227">
+        <v>3.1</v>
+      </c>
+      <c r="AX227">
+        <v>1.47</v>
+      </c>
+      <c r="AY227">
+        <v>6.5</v>
+      </c>
+      <c r="AZ227">
+        <v>2.85</v>
+      </c>
+      <c r="BA227">
+        <v>0</v>
+      </c>
+      <c r="BB227">
+        <v>1.21</v>
+      </c>
+      <c r="BC227">
+        <v>1.4</v>
+      </c>
+      <c r="BD227">
+        <v>1.7</v>
+      </c>
+      <c r="BE227">
+        <v>2.15</v>
+      </c>
+      <c r="BF227">
+        <v>8</v>
+      </c>
+      <c r="BG227">
+        <v>4</v>
+      </c>
+      <c r="BH227">
+        <v>9</v>
+      </c>
+      <c r="BI227">
+        <v>2</v>
+      </c>
+      <c r="BJ227">
+        <v>17</v>
+      </c>
+      <c r="BK227">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:63">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>1566225</v>
+      </c>
+      <c r="C228" t="s">
+        <v>63</v>
+      </c>
+      <c r="D228" t="s">
+        <v>64</v>
+      </c>
+      <c r="E228" s="2">
+        <v>44871.54166666666</v>
+      </c>
+      <c r="F228">
+        <v>29</v>
+      </c>
+      <c r="G228" t="s">
+        <v>70</v>
+      </c>
+      <c r="H228" t="s">
+        <v>75</v>
+      </c>
+      <c r="I228">
+        <v>1</v>
+      </c>
+      <c r="J228">
+        <v>2</v>
+      </c>
+      <c r="K228">
+        <v>3</v>
+      </c>
+      <c r="L228">
+        <v>2</v>
+      </c>
+      <c r="M228">
+        <v>2</v>
+      </c>
+      <c r="N228">
+        <v>4</v>
+      </c>
+      <c r="O228" t="s">
+        <v>251</v>
+      </c>
+      <c r="P228" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q228">
+        <v>7</v>
+      </c>
+      <c r="R228">
+        <v>3</v>
+      </c>
+      <c r="S228">
+        <v>10</v>
+      </c>
+      <c r="T228">
+        <v>2.5</v>
+      </c>
+      <c r="U228">
+        <v>2.5</v>
+      </c>
+      <c r="V228">
+        <v>3.6</v>
+      </c>
+      <c r="W228">
+        <v>1.25</v>
+      </c>
+      <c r="X228">
+        <v>3.75</v>
+      </c>
+      <c r="Y228">
+        <v>2.2</v>
+      </c>
+      <c r="Z228">
+        <v>1.62</v>
+      </c>
+      <c r="AA228">
+        <v>5</v>
+      </c>
+      <c r="AB228">
+        <v>1.17</v>
+      </c>
+      <c r="AC228">
+        <v>1.68</v>
+      </c>
+      <c r="AD228">
+        <v>3.75</v>
+      </c>
+      <c r="AE228">
+        <v>3.95</v>
+      </c>
+      <c r="AF228">
+        <v>1.02</v>
+      </c>
+      <c r="AG228">
+        <v>13</v>
+      </c>
+      <c r="AH228">
+        <v>1.13</v>
+      </c>
+      <c r="AI228">
+        <v>5</v>
+      </c>
+      <c r="AJ228">
+        <v>1.5</v>
+      </c>
+      <c r="AK228">
+        <v>2.4</v>
+      </c>
+      <c r="AL228">
+        <v>1.44</v>
+      </c>
+      <c r="AM228">
+        <v>2.63</v>
+      </c>
+      <c r="AN228">
+        <v>1.32</v>
+      </c>
+      <c r="AO228">
+        <v>1.28</v>
+      </c>
+      <c r="AP228">
+        <v>1.86</v>
+      </c>
+      <c r="AQ228">
+        <v>1.43</v>
+      </c>
+      <c r="AR228">
+        <v>0.36</v>
+      </c>
+      <c r="AS228">
+        <v>1.4</v>
+      </c>
+      <c r="AT228">
+        <v>0.4</v>
+      </c>
+      <c r="AU228">
+        <v>2.05</v>
+      </c>
+      <c r="AV228">
+        <v>1.42</v>
+      </c>
+      <c r="AW228">
+        <v>3.47</v>
+      </c>
+      <c r="AX228">
+        <v>1.45</v>
+      </c>
+      <c r="AY228">
+        <v>6.5</v>
+      </c>
+      <c r="AZ228">
+        <v>2.95</v>
+      </c>
+      <c r="BA228">
+        <v>1.08</v>
+      </c>
+      <c r="BB228">
+        <v>1.2</v>
+      </c>
+      <c r="BC228">
+        <v>1.32</v>
+      </c>
+      <c r="BD228">
+        <v>1.57</v>
+      </c>
+      <c r="BE228">
+        <v>1.95</v>
+      </c>
+      <c r="BF228">
+        <v>8</v>
+      </c>
+      <c r="BG228">
+        <v>4</v>
+      </c>
+      <c r="BH228">
+        <v>11</v>
+      </c>
+      <c r="BI228">
+        <v>3</v>
+      </c>
+      <c r="BJ228">
+        <v>19</v>
+      </c>
+      <c r="BK228">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229" spans="1:63">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>1566223</v>
+      </c>
+      <c r="C229" t="s">
+        <v>63</v>
+      </c>
+      <c r="D229" t="s">
+        <v>64</v>
+      </c>
+      <c r="E229" s="2">
+        <v>44871.54166666666</v>
+      </c>
+      <c r="F229">
+        <v>29</v>
+      </c>
+      <c r="G229" t="s">
+        <v>69</v>
+      </c>
+      <c r="H229" t="s">
+        <v>77</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>2</v>
+      </c>
+      <c r="K229">
+        <v>2</v>
+      </c>
+      <c r="L229">
+        <v>2</v>
+      </c>
+      <c r="M229">
+        <v>4</v>
+      </c>
+      <c r="N229">
+        <v>6</v>
+      </c>
+      <c r="O229" t="s">
+        <v>252</v>
+      </c>
+      <c r="P229" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q229">
+        <v>2</v>
+      </c>
+      <c r="R229">
+        <v>4</v>
+      </c>
+      <c r="S229">
+        <v>6</v>
+      </c>
+      <c r="T229">
+        <v>7</v>
+      </c>
+      <c r="U229">
+        <v>2.88</v>
+      </c>
+      <c r="V229">
+        <v>1.73</v>
+      </c>
+      <c r="W229">
+        <v>1.2</v>
+      </c>
+      <c r="X229">
+        <v>4.33</v>
+      </c>
+      <c r="Y229">
+        <v>1.91</v>
+      </c>
+      <c r="Z229">
+        <v>1.8</v>
+      </c>
+      <c r="AA229">
+        <v>4</v>
+      </c>
+      <c r="AB229">
+        <v>1.22</v>
+      </c>
+      <c r="AC229">
+        <v>6.41</v>
+      </c>
+      <c r="AD229">
+        <v>4.27</v>
+      </c>
+      <c r="AE229">
+        <v>1.38</v>
+      </c>
+      <c r="AF229">
+        <v>1.02</v>
+      </c>
+      <c r="AG229">
+        <v>15</v>
+      </c>
+      <c r="AH229">
+        <v>1.12</v>
+      </c>
+      <c r="AI229">
+        <v>5.5</v>
+      </c>
+      <c r="AJ229">
+        <v>1.36</v>
+      </c>
+      <c r="AK229">
+        <v>2.9</v>
+      </c>
+      <c r="AL229">
+        <v>1.67</v>
+      </c>
+      <c r="AM229">
+        <v>2.1</v>
+      </c>
+      <c r="AN229">
+        <v>3.5</v>
+      </c>
+      <c r="AO229">
+        <v>1.13</v>
+      </c>
+      <c r="AP229">
+        <v>1.07</v>
+      </c>
+      <c r="AQ229">
+        <v>1</v>
+      </c>
+      <c r="AR229">
+        <v>1.07</v>
+      </c>
+      <c r="AS229">
+        <v>0.93</v>
+      </c>
+      <c r="AT229">
+        <v>1.2</v>
+      </c>
+      <c r="AU229">
+        <v>1.42</v>
+      </c>
+      <c r="AV229">
+        <v>1.47</v>
+      </c>
+      <c r="AW229">
+        <v>2.89</v>
+      </c>
+      <c r="AX229">
+        <v>6.75</v>
+      </c>
+      <c r="AY229">
+        <v>9.5</v>
+      </c>
+      <c r="AZ229">
+        <v>1.12</v>
+      </c>
+      <c r="BA229">
+        <v>1.12</v>
+      </c>
+      <c r="BB229">
+        <v>1.22</v>
+      </c>
+      <c r="BC229">
+        <v>1.4</v>
+      </c>
+      <c r="BD229">
+        <v>1.7</v>
+      </c>
+      <c r="BE229">
+        <v>2.15</v>
+      </c>
+      <c r="BF229">
+        <v>9</v>
+      </c>
+      <c r="BG229">
+        <v>8</v>
+      </c>
+      <c r="BH229">
+        <v>6</v>
+      </c>
+      <c r="BI229">
+        <v>5</v>
+      </c>
+      <c r="BJ229">
+        <v>15</v>
+      </c>
+      <c r="BK229">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="230" spans="1:63">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>1566219</v>
+      </c>
+      <c r="C230" t="s">
+        <v>63</v>
+      </c>
+      <c r="D230" t="s">
+        <v>64</v>
+      </c>
+      <c r="E230" s="2">
+        <v>44871.54166666666</v>
+      </c>
+      <c r="F230">
+        <v>29</v>
+      </c>
+      <c r="G230" t="s">
+        <v>67</v>
+      </c>
+      <c r="H230" t="s">
+        <v>73</v>
+      </c>
+      <c r="I230">
+        <v>1</v>
+      </c>
+      <c r="J230">
+        <v>1</v>
+      </c>
+      <c r="K230">
+        <v>2</v>
+      </c>
+      <c r="L230">
+        <v>2</v>
+      </c>
+      <c r="M230">
+        <v>1</v>
+      </c>
+      <c r="N230">
+        <v>3</v>
+      </c>
+      <c r="O230" t="s">
+        <v>253</v>
+      </c>
+      <c r="P230" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q230">
+        <v>7</v>
+      </c>
+      <c r="R230">
+        <v>2</v>
+      </c>
+      <c r="S230">
+        <v>9</v>
+      </c>
+      <c r="T230">
+        <v>3.75</v>
+      </c>
+      <c r="U230">
+        <v>2.3</v>
+      </c>
+      <c r="V230">
+        <v>2.63</v>
+      </c>
+      <c r="W230">
+        <v>1.3</v>
+      </c>
+      <c r="X230">
+        <v>3.4</v>
+      </c>
+      <c r="Y230">
+        <v>2.5</v>
+      </c>
+      <c r="Z230">
+        <v>1.5</v>
+      </c>
+      <c r="AA230">
+        <v>6</v>
+      </c>
+      <c r="AB230">
+        <v>1.13</v>
+      </c>
+      <c r="AC230">
+        <v>3.25</v>
+      </c>
+      <c r="AD230">
+        <v>3.35</v>
+      </c>
+      <c r="AE230">
+        <v>1.97</v>
+      </c>
+      <c r="AF230">
+        <v>1.01</v>
+      </c>
+      <c r="AG230">
+        <v>11</v>
+      </c>
+      <c r="AH230">
+        <v>1.17</v>
+      </c>
+      <c r="AI230">
+        <v>4.3</v>
+      </c>
+      <c r="AJ230">
+        <v>1.62</v>
+      </c>
+      <c r="AK230">
+        <v>2.15</v>
+      </c>
+      <c r="AL230">
+        <v>1.57</v>
+      </c>
+      <c r="AM230">
+        <v>2.25</v>
+      </c>
+      <c r="AN230">
+        <v>1.77</v>
+      </c>
+      <c r="AO230">
+        <v>1.31</v>
+      </c>
+      <c r="AP230">
+        <v>1.34</v>
+      </c>
+      <c r="AQ230">
+        <v>1.43</v>
+      </c>
+      <c r="AR230">
+        <v>1.71</v>
+      </c>
+      <c r="AS230">
+        <v>1.53</v>
+      </c>
+      <c r="AT230">
+        <v>1.6</v>
+      </c>
+      <c r="AU230">
+        <v>1.64</v>
+      </c>
+      <c r="AV230">
+        <v>1.61</v>
+      </c>
+      <c r="AW230">
+        <v>3.25</v>
+      </c>
+      <c r="AX230">
+        <v>3.2</v>
+      </c>
+      <c r="AY230">
+        <v>6.25</v>
+      </c>
+      <c r="AZ230">
+        <v>1.4</v>
+      </c>
+      <c r="BA230">
+        <v>1.15</v>
+      </c>
+      <c r="BB230">
+        <v>1.26</v>
+      </c>
+      <c r="BC230">
+        <v>1.53</v>
+      </c>
+      <c r="BD230">
+        <v>1.85</v>
+      </c>
+      <c r="BE230">
+        <v>2.26</v>
+      </c>
+      <c r="BF230">
+        <v>9</v>
+      </c>
+      <c r="BG230">
+        <v>6</v>
+      </c>
+      <c r="BH230">
+        <v>8</v>
+      </c>
+      <c r="BI230">
+        <v>3</v>
+      </c>
+      <c r="BJ230">
+        <v>17</v>
+      </c>
+      <c r="BK230">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="231" spans="1:63">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>1566221</v>
+      </c>
+      <c r="C231" t="s">
+        <v>63</v>
+      </c>
+      <c r="D231" t="s">
+        <v>64</v>
+      </c>
+      <c r="E231" s="2">
+        <v>44871.54166666666</v>
+      </c>
+      <c r="F231">
+        <v>29</v>
+      </c>
+      <c r="G231" t="s">
+        <v>65</v>
+      </c>
+      <c r="H231" t="s">
+        <v>78</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>1</v>
+      </c>
+      <c r="M231">
+        <v>2</v>
+      </c>
+      <c r="N231">
+        <v>3</v>
+      </c>
+      <c r="O231" t="s">
+        <v>254</v>
+      </c>
+      <c r="P231" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q231">
+        <v>4</v>
+      </c>
+      <c r="R231">
+        <v>4</v>
+      </c>
+      <c r="S231">
+        <v>8</v>
+      </c>
+      <c r="T231">
+        <v>2.88</v>
+      </c>
+      <c r="U231">
+        <v>2.25</v>
+      </c>
+      <c r="V231">
+        <v>3.4</v>
+      </c>
+      <c r="W231">
+        <v>1.33</v>
+      </c>
+      <c r="X231">
+        <v>3.25</v>
+      </c>
+      <c r="Y231">
+        <v>2.63</v>
+      </c>
+      <c r="Z231">
+        <v>1.44</v>
+      </c>
+      <c r="AA231">
+        <v>6.5</v>
+      </c>
+      <c r="AB231">
+        <v>1.11</v>
+      </c>
+      <c r="AC231">
+        <v>2.18</v>
+      </c>
+      <c r="AD231">
+        <v>3.26</v>
+      </c>
+      <c r="AE231">
+        <v>2.87</v>
+      </c>
+      <c r="AF231">
+        <v>1.01</v>
+      </c>
+      <c r="AG231">
+        <v>11</v>
+      </c>
+      <c r="AH231">
+        <v>1.22</v>
+      </c>
+      <c r="AI231">
+        <v>3.8</v>
+      </c>
+      <c r="AJ231">
+        <v>1.75</v>
+      </c>
+      <c r="AK231">
+        <v>1.95</v>
+      </c>
+      <c r="AL231">
+        <v>1.62</v>
+      </c>
+      <c r="AM231">
+        <v>2.2</v>
+      </c>
+      <c r="AN231">
+        <v>1.39</v>
+      </c>
+      <c r="AO231">
+        <v>1.28</v>
+      </c>
+      <c r="AP231">
+        <v>1.6</v>
+      </c>
+      <c r="AQ231">
+        <v>1.29</v>
+      </c>
+      <c r="AR231">
+        <v>0.79</v>
+      </c>
+      <c r="AS231">
+        <v>1.2</v>
+      </c>
+      <c r="AT231">
+        <v>0.93</v>
+      </c>
+      <c r="AU231">
+        <v>1.67</v>
+      </c>
+      <c r="AV231">
+        <v>1.53</v>
+      </c>
+      <c r="AW231">
+        <v>3.2</v>
+      </c>
+      <c r="AX231">
+        <v>1.74</v>
+      </c>
+      <c r="AY231">
+        <v>5.5</v>
+      </c>
+      <c r="AZ231">
+        <v>2.3</v>
+      </c>
+      <c r="BA231">
+        <v>1.26</v>
+      </c>
+      <c r="BB231">
+        <v>1.49</v>
+      </c>
+      <c r="BC231">
+        <v>2</v>
+      </c>
+      <c r="BD231">
+        <v>2.45</v>
+      </c>
+      <c r="BE231">
+        <v>3.4</v>
+      </c>
+      <c r="BF231">
+        <v>5</v>
+      </c>
+      <c r="BG231">
+        <v>4</v>
+      </c>
+      <c r="BH231">
+        <v>4</v>
+      </c>
+      <c r="BI231">
+        <v>7</v>
+      </c>
+      <c r="BJ231">
+        <v>9</v>
+      </c>
+      <c r="BK231">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="232" spans="1:63">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>1566220</v>
+      </c>
+      <c r="C232" t="s">
+        <v>63</v>
+      </c>
+      <c r="D232" t="s">
+        <v>64</v>
+      </c>
+      <c r="E232" s="2">
+        <v>44871.54166666666</v>
+      </c>
+      <c r="F232">
+        <v>29</v>
+      </c>
+      <c r="G232" t="s">
+        <v>72</v>
+      </c>
+      <c r="H232" t="s">
+        <v>80</v>
+      </c>
+      <c r="I232">
+        <v>2</v>
+      </c>
+      <c r="J232">
+        <v>2</v>
+      </c>
+      <c r="K232">
+        <v>4</v>
+      </c>
+      <c r="L232">
+        <v>5</v>
+      </c>
+      <c r="M232">
+        <v>4</v>
+      </c>
+      <c r="N232">
+        <v>9</v>
+      </c>
+      <c r="O232" t="s">
+        <v>255</v>
+      </c>
+      <c r="P232" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q232">
+        <v>4</v>
+      </c>
+      <c r="R232">
+        <v>1</v>
+      </c>
+      <c r="S232">
+        <v>5</v>
+      </c>
+      <c r="T232">
+        <v>1.67</v>
+      </c>
+      <c r="U232">
+        <v>3</v>
+      </c>
+      <c r="V232">
+        <v>7</v>
+      </c>
+      <c r="W232">
+        <v>1.18</v>
+      </c>
+      <c r="X232">
+        <v>4.5</v>
+      </c>
+      <c r="Y232">
+        <v>1.83</v>
+      </c>
+      <c r="Z232">
+        <v>1.83</v>
+      </c>
+      <c r="AA232">
+        <v>3.75</v>
+      </c>
+      <c r="AB232">
+        <v>1.25</v>
+      </c>
+      <c r="AC232">
+        <v>1.48</v>
+      </c>
+      <c r="AD232">
+        <v>4.26</v>
+      </c>
+      <c r="AE232">
+        <v>4.92</v>
+      </c>
+      <c r="AF232">
+        <v>1.01</v>
+      </c>
+      <c r="AG232">
+        <v>37.5</v>
+      </c>
+      <c r="AH232">
+        <v>1.08</v>
+      </c>
+      <c r="AI232">
+        <v>7.9</v>
+      </c>
+      <c r="AJ232">
+        <v>1.28</v>
+      </c>
+      <c r="AK232">
+        <v>3.3</v>
+      </c>
+      <c r="AL232">
+        <v>1.57</v>
+      </c>
+      <c r="AM232">
+        <v>2.25</v>
+      </c>
+      <c r="AN232">
+        <v>1.09</v>
+      </c>
+      <c r="AO232">
+        <v>1.13</v>
+      </c>
+      <c r="AP232">
+        <v>3.72</v>
+      </c>
+      <c r="AQ232">
+        <v>1.93</v>
+      </c>
+      <c r="AR232">
+        <v>1.07</v>
+      </c>
+      <c r="AS232">
+        <v>2</v>
+      </c>
+      <c r="AT232">
+        <v>1</v>
+      </c>
+      <c r="AU232">
+        <v>2.24</v>
+      </c>
+      <c r="AV232">
+        <v>1.72</v>
+      </c>
+      <c r="AW232">
+        <v>3.96</v>
+      </c>
+      <c r="AX232">
+        <v>1.1</v>
+      </c>
+      <c r="AY232">
+        <v>10.75</v>
+      </c>
+      <c r="AZ232">
+        <v>7.75</v>
+      </c>
+      <c r="BA232">
+        <v>1.17</v>
+      </c>
+      <c r="BB232">
+        <v>1.28</v>
+      </c>
+      <c r="BC232">
+        <v>1.5</v>
+      </c>
+      <c r="BD232">
+        <v>2</v>
+      </c>
+      <c r="BE232">
+        <v>2.45</v>
+      </c>
+      <c r="BF232">
+        <v>8</v>
+      </c>
+      <c r="BG232">
+        <v>5</v>
+      </c>
+      <c r="BH232">
+        <v>5</v>
+      </c>
+      <c r="BI232">
+        <v>1</v>
+      </c>
+      <c r="BJ232">
+        <v>13</v>
+      </c>
+      <c r="BK232">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:63">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>1566222</v>
+      </c>
+      <c r="C233" t="s">
+        <v>63</v>
+      </c>
+      <c r="D233" t="s">
+        <v>64</v>
+      </c>
+      <c r="E233" s="2">
+        <v>44871.54166666666</v>
+      </c>
+      <c r="F233">
+        <v>29</v>
+      </c>
+      <c r="G233" t="s">
+        <v>68</v>
+      </c>
+      <c r="H233" t="s">
+        <v>79</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>1</v>
+      </c>
+      <c r="M233">
+        <v>1</v>
+      </c>
+      <c r="N233">
+        <v>2</v>
+      </c>
+      <c r="O233" t="s">
+        <v>256</v>
+      </c>
+      <c r="P233" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q233">
+        <v>3</v>
+      </c>
+      <c r="R233">
+        <v>3</v>
+      </c>
+      <c r="S233">
+        <v>6</v>
+      </c>
+      <c r="T233">
+        <v>3.2</v>
+      </c>
+      <c r="U233">
+        <v>2.4</v>
+      </c>
+      <c r="V233">
+        <v>2.88</v>
+      </c>
+      <c r="W233">
+        <v>1.29</v>
+      </c>
+      <c r="X233">
+        <v>3.5</v>
+      </c>
+      <c r="Y233">
+        <v>2.25</v>
+      </c>
+      <c r="Z233">
+        <v>1.57</v>
+      </c>
+      <c r="AA233">
+        <v>5.5</v>
+      </c>
+      <c r="AB233">
+        <v>1.14</v>
+      </c>
+      <c r="AC233">
+        <v>2.67</v>
+      </c>
+      <c r="AD233">
+        <v>3.56</v>
+      </c>
+      <c r="AE233">
+        <v>2.18</v>
+      </c>
+      <c r="AF233">
+        <v>1.02</v>
+      </c>
+      <c r="AG233">
+        <v>19.25</v>
+      </c>
+      <c r="AH233">
+        <v>1.15</v>
+      </c>
+      <c r="AI233">
+        <v>4.75</v>
+      </c>
+      <c r="AJ233">
+        <v>1.53</v>
+      </c>
+      <c r="AK233">
+        <v>2.35</v>
+      </c>
+      <c r="AL233">
+        <v>1.44</v>
+      </c>
+      <c r="AM233">
+        <v>2.63</v>
+      </c>
+      <c r="AN233">
+        <v>1.58</v>
+      </c>
+      <c r="AO233">
+        <v>1.3</v>
+      </c>
+      <c r="AP233">
+        <v>1.43</v>
+      </c>
+      <c r="AQ233">
+        <v>1.5</v>
+      </c>
+      <c r="AR233">
+        <v>1</v>
+      </c>
+      <c r="AS233">
+        <v>1.47</v>
+      </c>
+      <c r="AT233">
+        <v>1</v>
+      </c>
+      <c r="AU233">
+        <v>1.63</v>
+      </c>
+      <c r="AV233">
+        <v>1.45</v>
+      </c>
+      <c r="AW233">
+        <v>3.08</v>
+      </c>
+      <c r="AX233">
+        <v>2.25</v>
+      </c>
+      <c r="AY233">
+        <v>5.75</v>
+      </c>
+      <c r="AZ233">
+        <v>1.76</v>
+      </c>
+      <c r="BA233">
+        <v>1.1</v>
+      </c>
+      <c r="BB233">
+        <v>1.21</v>
+      </c>
+      <c r="BC233">
+        <v>1.4</v>
+      </c>
+      <c r="BD233">
+        <v>1.7</v>
+      </c>
+      <c r="BE233">
+        <v>2.15</v>
+      </c>
+      <c r="BF233">
+        <v>5</v>
+      </c>
+      <c r="BG233">
+        <v>4</v>
+      </c>
+      <c r="BH233">
+        <v>5</v>
+      </c>
+      <c r="BI233">
+        <v>2</v>
+      </c>
+      <c r="BJ233">
+        <v>10</v>
+      </c>
+      <c r="BK233">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:63">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>1566233</v>
+      </c>
+      <c r="C234" t="s">
+        <v>63</v>
+      </c>
+      <c r="D234" t="s">
+        <v>64</v>
+      </c>
+      <c r="E234" s="2">
+        <v>44878.54166666666</v>
+      </c>
+      <c r="F234">
+        <v>30</v>
+      </c>
+      <c r="G234" t="s">
+        <v>80</v>
+      </c>
+      <c r="H234" t="s">
+        <v>71</v>
+      </c>
+      <c r="I234">
+        <v>1</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+      <c r="K234">
+        <v>1</v>
+      </c>
+      <c r="L234">
+        <v>1</v>
+      </c>
+      <c r="M234">
+        <v>1</v>
+      </c>
+      <c r="N234">
+        <v>2</v>
+      </c>
+      <c r="O234" t="s">
+        <v>140</v>
+      </c>
+      <c r="P234" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q234">
+        <v>3</v>
+      </c>
+      <c r="R234">
+        <v>7</v>
+      </c>
+      <c r="S234">
+        <v>10</v>
+      </c>
+      <c r="T234">
+        <v>2.26</v>
+      </c>
+      <c r="U234">
+        <v>2.47</v>
+      </c>
+      <c r="V234">
+        <v>3.95</v>
+      </c>
+      <c r="W234">
+        <v>1.25</v>
+      </c>
+      <c r="X234">
+        <v>3.6</v>
+      </c>
+      <c r="Y234">
+        <v>2.1</v>
+      </c>
+      <c r="Z234">
+        <v>1.65</v>
+      </c>
+      <c r="AA234">
+        <v>4.5</v>
+      </c>
+      <c r="AB234">
+        <v>1.17</v>
+      </c>
+      <c r="AC234">
+        <v>1.68</v>
+      </c>
+      <c r="AD234">
+        <v>4.4</v>
+      </c>
+      <c r="AE234">
+        <v>4.3</v>
+      </c>
+      <c r="AF234">
+        <v>1.01</v>
+      </c>
+      <c r="AG234">
+        <v>19</v>
+      </c>
+      <c r="AH234">
+        <v>1.13</v>
+      </c>
+      <c r="AI234">
+        <v>5</v>
+      </c>
+      <c r="AJ234">
+        <v>1.53</v>
+      </c>
+      <c r="AK234">
+        <v>2.35</v>
+      </c>
+      <c r="AL234">
+        <v>1.49</v>
+      </c>
+      <c r="AM234">
+        <v>2.57</v>
+      </c>
+      <c r="AN234">
+        <v>1.25</v>
+      </c>
+      <c r="AO234">
+        <v>1.22</v>
+      </c>
+      <c r="AP234">
+        <v>2.14</v>
+      </c>
+      <c r="AQ234">
+        <v>1.36</v>
+      </c>
+      <c r="AR234">
+        <v>1.36</v>
+      </c>
+      <c r="AS234">
+        <v>1.33</v>
+      </c>
+      <c r="AT234">
+        <v>1.33</v>
+      </c>
+      <c r="AU234">
+        <v>1.94</v>
+      </c>
+      <c r="AV234">
+        <v>1.41</v>
+      </c>
+      <c r="AW234">
+        <v>3.35</v>
+      </c>
+      <c r="AX234">
+        <v>1.44</v>
+      </c>
+      <c r="AY234">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ234">
+        <v>3.52</v>
+      </c>
+      <c r="BA234">
+        <v>1.12</v>
+      </c>
+      <c r="BB234">
+        <v>1.26</v>
+      </c>
+      <c r="BC234">
+        <v>1.47</v>
+      </c>
+      <c r="BD234">
+        <v>1.88</v>
+      </c>
+      <c r="BE234">
+        <v>2.35</v>
+      </c>
+      <c r="BF234">
+        <v>3</v>
+      </c>
+      <c r="BG234">
+        <v>5</v>
+      </c>
+      <c r="BH234">
+        <v>5</v>
+      </c>
+      <c r="BI234">
+        <v>13</v>
+      </c>
+      <c r="BJ234">
+        <v>8</v>
+      </c>
+      <c r="BK234">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="235" spans="1:63">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>1566227</v>
+      </c>
+      <c r="C235" t="s">
+        <v>63</v>
+      </c>
+      <c r="D235" t="s">
+        <v>64</v>
+      </c>
+      <c r="E235" s="2">
+        <v>44878.54166666666</v>
+      </c>
+      <c r="F235">
+        <v>30</v>
+      </c>
+      <c r="G235" t="s">
+        <v>75</v>
+      </c>
+      <c r="H235" t="s">
+        <v>69</v>
+      </c>
+      <c r="I235">
+        <v>1</v>
+      </c>
+      <c r="J235">
+        <v>1</v>
+      </c>
+      <c r="K235">
+        <v>2</v>
+      </c>
+      <c r="L235">
+        <v>1</v>
+      </c>
+      <c r="M235">
+        <v>1</v>
+      </c>
+      <c r="N235">
+        <v>2</v>
+      </c>
+      <c r="O235" t="s">
+        <v>257</v>
+      </c>
+      <c r="P235" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q235">
+        <v>8</v>
+      </c>
+      <c r="R235">
+        <v>7</v>
+      </c>
+      <c r="S235">
+        <v>15</v>
+      </c>
+      <c r="T235">
+        <v>1.68</v>
+      </c>
+      <c r="U235">
+        <v>2.8</v>
+      </c>
+      <c r="V235">
+        <v>6</v>
+      </c>
+      <c r="W235">
+        <v>1.19</v>
+      </c>
+      <c r="X235">
+        <v>4.33</v>
+      </c>
+      <c r="Y235">
+        <v>1.85</v>
+      </c>
+      <c r="Z235">
+        <v>1.83</v>
+      </c>
+      <c r="AA235">
+        <v>3.7</v>
+      </c>
+      <c r="AB235">
+        <v>1.24</v>
+      </c>
+      <c r="AC235">
+        <v>1.31</v>
+      </c>
+      <c r="AD235">
+        <v>5.75</v>
+      </c>
+      <c r="AE235">
+        <v>8.5</v>
+      </c>
+      <c r="AF235">
+        <v>1.01</v>
+      </c>
+      <c r="AG235">
+        <v>20</v>
+      </c>
+      <c r="AH235">
+        <v>1.09</v>
+      </c>
+      <c r="AI235">
+        <v>6</v>
+      </c>
+      <c r="AJ235">
+        <v>1.3</v>
+      </c>
+      <c r="AK235">
+        <v>3.2</v>
+      </c>
+      <c r="AL235">
+        <v>1.57</v>
+      </c>
+      <c r="AM235">
+        <v>2.25</v>
+      </c>
+      <c r="AN235">
+        <v>1.1</v>
+      </c>
+      <c r="AO235">
+        <v>1.13</v>
+      </c>
+      <c r="AP235">
+        <v>3.25</v>
+      </c>
+      <c r="AQ235">
+        <v>1.14</v>
+      </c>
+      <c r="AR235">
+        <v>0.36</v>
+      </c>
+      <c r="AS235">
+        <v>1.13</v>
+      </c>
+      <c r="AT235">
+        <v>0.4</v>
+      </c>
+      <c r="AU235">
+        <v>1.66</v>
+      </c>
+      <c r="AV235">
+        <v>1.24</v>
+      </c>
+      <c r="AW235">
+        <v>2.9</v>
+      </c>
+      <c r="AX235">
+        <v>1.14</v>
+      </c>
+      <c r="AY235">
+        <v>13.25</v>
+      </c>
+      <c r="AZ235">
+        <v>7.4</v>
+      </c>
+      <c r="BA235">
+        <v>1.06</v>
+      </c>
+      <c r="BB235">
+        <v>1.12</v>
+      </c>
+      <c r="BC235">
+        <v>1.27</v>
+      </c>
+      <c r="BD235">
+        <v>1.49</v>
+      </c>
+      <c r="BE235">
+        <v>1.95</v>
+      </c>
+      <c r="BF235">
+        <v>6</v>
+      </c>
+      <c r="BG235">
+        <v>4</v>
+      </c>
+      <c r="BH235">
+        <v>15</v>
+      </c>
+      <c r="BI235">
+        <v>8</v>
+      </c>
+      <c r="BJ235">
+        <v>21</v>
+      </c>
+      <c r="BK235">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="236" spans="1:63">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>1566228</v>
+      </c>
+      <c r="C236" t="s">
+        <v>63</v>
+      </c>
+      <c r="D236" t="s">
+        <v>64</v>
+      </c>
+      <c r="E236" s="2">
+        <v>44878.54166666666</v>
+      </c>
+      <c r="F236">
+        <v>30</v>
+      </c>
+      <c r="G236" t="s">
+        <v>73</v>
+      </c>
+      <c r="H236" t="s">
+        <v>65</v>
+      </c>
+      <c r="I236">
+        <v>1</v>
+      </c>
+      <c r="J236">
+        <v>1</v>
+      </c>
+      <c r="K236">
+        <v>2</v>
+      </c>
+      <c r="L236">
+        <v>3</v>
+      </c>
+      <c r="M236">
+        <v>1</v>
+      </c>
+      <c r="N236">
+        <v>4</v>
+      </c>
+      <c r="O236" t="s">
+        <v>258</v>
+      </c>
+      <c r="P236" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q236">
+        <v>4</v>
+      </c>
+      <c r="R236">
+        <v>6</v>
+      </c>
+      <c r="S236">
+        <v>10</v>
+      </c>
+      <c r="T236">
+        <v>1.91</v>
+      </c>
+      <c r="U236">
+        <v>2.55</v>
+      </c>
+      <c r="V236">
+        <v>5.4</v>
+      </c>
+      <c r="W236">
+        <v>1.24</v>
+      </c>
+      <c r="X236">
+        <v>3.85</v>
+      </c>
+      <c r="Y236">
+        <v>2.25</v>
+      </c>
+      <c r="Z236">
+        <v>1.58</v>
+      </c>
+      <c r="AA236">
+        <v>5.3</v>
+      </c>
+      <c r="AB236">
+        <v>1.14</v>
+      </c>
+      <c r="AC236">
+        <v>1.49</v>
+      </c>
+      <c r="AD236">
+        <v>4.6</v>
+      </c>
+      <c r="AE236">
+        <v>6.25</v>
+      </c>
+      <c r="AF236">
+        <v>1.01</v>
+      </c>
+      <c r="AG236">
+        <v>17</v>
+      </c>
+      <c r="AH236">
+        <v>1.16</v>
+      </c>
+      <c r="AI236">
+        <v>5.5</v>
+      </c>
+      <c r="AJ236">
+        <v>1.53</v>
+      </c>
+      <c r="AK236">
+        <v>2.35</v>
+      </c>
+      <c r="AL236">
+        <v>1.65</v>
+      </c>
+      <c r="AM236">
+        <v>2.18</v>
+      </c>
+      <c r="AN236">
+        <v>1.13</v>
+      </c>
+      <c r="AO236">
+        <v>1.21</v>
+      </c>
+      <c r="AP236">
+        <v>2.7</v>
+      </c>
+      <c r="AQ236">
+        <v>1.86</v>
+      </c>
+      <c r="AR236">
+        <v>0.93</v>
+      </c>
+      <c r="AS236">
+        <v>1.93</v>
+      </c>
+      <c r="AT236">
+        <v>0.87</v>
+      </c>
+      <c r="AU236">
+        <v>1.73</v>
+      </c>
+      <c r="AV236">
+        <v>1.29</v>
+      </c>
+      <c r="AW236">
+        <v>3.02</v>
+      </c>
+      <c r="AX236">
+        <v>1.27</v>
+      </c>
+      <c r="AY236">
+        <v>10.5</v>
+      </c>
+      <c r="AZ236">
+        <v>4.9</v>
+      </c>
+      <c r="BA236">
+        <v>1.12</v>
+      </c>
+      <c r="BB236">
+        <v>1.26</v>
+      </c>
+      <c r="BC236">
+        <v>1.47</v>
+      </c>
+      <c r="BD236">
+        <v>1.88</v>
+      </c>
+      <c r="BE236">
+        <v>2.37</v>
+      </c>
+      <c r="BF236">
+        <v>7</v>
+      </c>
+      <c r="BG236">
+        <v>4</v>
+      </c>
+      <c r="BH236">
+        <v>10</v>
+      </c>
+      <c r="BI236">
+        <v>8</v>
+      </c>
+      <c r="BJ236">
+        <v>17</v>
+      </c>
+      <c r="BK236">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="237" spans="1:63">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>1566229</v>
+      </c>
+      <c r="C237" t="s">
+        <v>63</v>
+      </c>
+      <c r="D237" t="s">
+        <v>64</v>
+      </c>
+      <c r="E237" s="2">
+        <v>44878.54166666666</v>
+      </c>
+      <c r="F237">
+        <v>30</v>
+      </c>
+      <c r="G237" t="s">
+        <v>76</v>
+      </c>
+      <c r="H237" t="s">
+        <v>72</v>
+      </c>
+      <c r="I237">
+        <v>1</v>
+      </c>
+      <c r="J237">
+        <v>1</v>
+      </c>
+      <c r="K237">
+        <v>2</v>
+      </c>
+      <c r="L237">
+        <v>2</v>
+      </c>
+      <c r="M237">
+        <v>4</v>
+      </c>
+      <c r="N237">
+        <v>6</v>
+      </c>
+      <c r="O237" t="s">
+        <v>259</v>
+      </c>
+      <c r="P237" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q237">
+        <v>4</v>
+      </c>
+      <c r="R237">
+        <v>9</v>
+      </c>
+      <c r="S237">
+        <v>13</v>
+      </c>
+      <c r="T237">
+        <v>5</v>
+      </c>
+      <c r="U237">
+        <v>2.9</v>
+      </c>
+      <c r="V237">
+        <v>1.8</v>
+      </c>
+      <c r="W237">
+        <v>1.15</v>
+      </c>
+      <c r="X237">
+        <v>4.75</v>
+      </c>
+      <c r="Y237">
+        <v>1.78</v>
+      </c>
+      <c r="Z237">
+        <v>2</v>
+      </c>
+      <c r="AA237">
+        <v>3.3</v>
+      </c>
+      <c r="AB237">
+        <v>1.29</v>
+      </c>
+      <c r="AC237">
+        <v>5.2</v>
+      </c>
+      <c r="AD237">
+        <v>5.3</v>
+      </c>
+      <c r="AE237">
+        <v>1.48</v>
+      </c>
+      <c r="AF237">
+        <v>1.01</v>
+      </c>
+      <c r="AG237">
+        <v>45.5</v>
+      </c>
+      <c r="AH237">
+        <v>1.08</v>
+      </c>
+      <c r="AI237">
+        <v>6.5</v>
+      </c>
+      <c r="AJ237">
+        <v>1.25</v>
+      </c>
+      <c r="AK237">
+        <v>3.5</v>
+      </c>
+      <c r="AL237">
+        <v>1.38</v>
+      </c>
+      <c r="AM237">
+        <v>2.8</v>
+      </c>
+      <c r="AN237">
+        <v>2.7</v>
+      </c>
+      <c r="AO237">
+        <v>1.17</v>
+      </c>
+      <c r="AP237">
+        <v>1.15</v>
+      </c>
+      <c r="AQ237">
+        <v>1.64</v>
+      </c>
+      <c r="AR237">
+        <v>1.93</v>
+      </c>
+      <c r="AS237">
+        <v>1.53</v>
+      </c>
+      <c r="AT237">
+        <v>2</v>
+      </c>
+      <c r="AU237">
+        <v>2.1</v>
+      </c>
+      <c r="AV237">
+        <v>1.99</v>
+      </c>
+      <c r="AW237">
+        <v>4.09</v>
+      </c>
+      <c r="AX237">
+        <v>4.45</v>
+      </c>
+      <c r="AY237">
+        <v>10</v>
+      </c>
+      <c r="AZ237">
+        <v>1.31</v>
+      </c>
+      <c r="BA237">
+        <v>1.12</v>
+      </c>
+      <c r="BB237">
+        <v>1.24</v>
+      </c>
+      <c r="BC237">
+        <v>1.44</v>
+      </c>
+      <c r="BD237">
+        <v>1.8</v>
+      </c>
+      <c r="BE237">
+        <v>2.3</v>
+      </c>
+      <c r="BF237">
+        <v>4</v>
+      </c>
+      <c r="BG237">
+        <v>5</v>
+      </c>
+      <c r="BH237">
+        <v>6</v>
+      </c>
+      <c r="BI237">
+        <v>24</v>
+      </c>
+      <c r="BJ237">
+        <v>10</v>
+      </c>
+      <c r="BK237">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="238" spans="1:63">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>1566230</v>
+      </c>
+      <c r="C238" t="s">
+        <v>63</v>
+      </c>
+      <c r="D238" t="s">
+        <v>64</v>
+      </c>
+      <c r="E238" s="2">
+        <v>44878.54166666666</v>
+      </c>
+      <c r="F238">
+        <v>30</v>
+      </c>
+      <c r="G238" t="s">
+        <v>77</v>
+      </c>
+      <c r="H238" t="s">
+        <v>70</v>
+      </c>
+      <c r="I238">
+        <v>1</v>
+      </c>
+      <c r="J238">
+        <v>2</v>
+      </c>
+      <c r="K238">
+        <v>3</v>
+      </c>
+      <c r="L238">
+        <v>2</v>
+      </c>
+      <c r="M238">
+        <v>3</v>
+      </c>
+      <c r="N238">
+        <v>5</v>
+      </c>
+      <c r="O238" t="s">
+        <v>260</v>
+      </c>
+      <c r="P238" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q238">
+        <v>5</v>
+      </c>
+      <c r="R238">
+        <v>7</v>
+      </c>
+      <c r="S238">
+        <v>12</v>
+      </c>
+      <c r="T238">
+        <v>1.9</v>
+      </c>
+      <c r="U238">
+        <v>2.8</v>
+      </c>
+      <c r="V238">
+        <v>4.6</v>
+      </c>
+      <c r="W238">
+        <v>1.17</v>
+      </c>
+      <c r="X238">
+        <v>4.5</v>
+      </c>
+      <c r="Y238">
+        <v>1.85</v>
+      </c>
+      <c r="Z238">
+        <v>2.03</v>
+      </c>
+      <c r="AA238">
+        <v>3.3</v>
+      </c>
+      <c r="AB238">
+        <v>1.29</v>
+      </c>
+      <c r="AC238">
+        <v>1.48</v>
+      </c>
+      <c r="AD238">
+        <v>4.9</v>
+      </c>
+      <c r="AE238">
+        <v>5.8</v>
+      </c>
+      <c r="AF238">
+        <v>1.01</v>
+      </c>
+      <c r="AG238">
+        <v>25</v>
+      </c>
+      <c r="AH238">
+        <v>1.08</v>
+      </c>
+      <c r="AI238">
+        <v>6.5</v>
+      </c>
+      <c r="AJ238">
+        <v>1.3</v>
+      </c>
+      <c r="AK238">
+        <v>3.2</v>
+      </c>
+      <c r="AL238">
+        <v>1.4</v>
+      </c>
+      <c r="AM238">
+        <v>2.89</v>
+      </c>
+      <c r="AN238">
+        <v>1.15</v>
+      </c>
+      <c r="AO238">
+        <v>1.17</v>
+      </c>
+      <c r="AP238">
+        <v>2.7</v>
+      </c>
+      <c r="AQ238">
+        <v>2.71</v>
+      </c>
+      <c r="AR238">
+        <v>1.21</v>
+      </c>
+      <c r="AS238">
+        <v>2.53</v>
+      </c>
+      <c r="AT238">
+        <v>1.33</v>
+      </c>
+      <c r="AU238">
+        <v>1.85</v>
+      </c>
+      <c r="AV238">
+        <v>1.82</v>
+      </c>
+      <c r="AW238">
+        <v>3.67</v>
+      </c>
+      <c r="AX238">
+        <v>1.31</v>
+      </c>
+      <c r="AY238">
+        <v>10</v>
+      </c>
+      <c r="AZ238">
+        <v>4.45</v>
+      </c>
+      <c r="BA238">
+        <v>1.12</v>
+      </c>
+      <c r="BB238">
+        <v>1.27</v>
+      </c>
+      <c r="BC238">
+        <v>1.5</v>
+      </c>
+      <c r="BD238">
+        <v>2</v>
+      </c>
+      <c r="BE238">
+        <v>2.45</v>
+      </c>
+      <c r="BF238">
+        <v>4</v>
+      </c>
+      <c r="BG238">
+        <v>6</v>
+      </c>
+      <c r="BH238">
+        <v>6</v>
+      </c>
+      <c r="BI238">
+        <v>9</v>
+      </c>
+      <c r="BJ238">
+        <v>10</v>
+      </c>
+      <c r="BK238">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="239" spans="1:63">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>1566231</v>
+      </c>
+      <c r="C239" t="s">
+        <v>63</v>
+      </c>
+      <c r="D239" t="s">
+        <v>64</v>
+      </c>
+      <c r="E239" s="2">
+        <v>44878.54166666666</v>
+      </c>
+      <c r="F239">
+        <v>30</v>
+      </c>
+      <c r="G239" t="s">
+        <v>74</v>
+      </c>
+      <c r="H239" t="s">
+        <v>68</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <v>2</v>
+      </c>
+      <c r="K239">
+        <v>2</v>
+      </c>
+      <c r="L239">
+        <v>2</v>
+      </c>
+      <c r="M239">
+        <v>2</v>
+      </c>
+      <c r="N239">
+        <v>4</v>
+      </c>
+      <c r="O239" t="s">
+        <v>261</v>
+      </c>
+      <c r="P239" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q239">
+        <v>9</v>
+      </c>
+      <c r="R239">
+        <v>4</v>
+      </c>
+      <c r="S239">
+        <v>13</v>
+      </c>
+      <c r="T239">
+        <v>2.4</v>
+      </c>
+      <c r="U239">
+        <v>2.4</v>
+      </c>
+      <c r="V239">
+        <v>3.6</v>
+      </c>
+      <c r="W239">
+        <v>1.22</v>
+      </c>
+      <c r="X239">
+        <v>3.95</v>
+      </c>
+      <c r="Y239">
+        <v>2.25</v>
+      </c>
+      <c r="Z239">
+        <v>1.58</v>
+      </c>
+      <c r="AA239">
+        <v>5.4</v>
+      </c>
+      <c r="AB239">
+        <v>1.14</v>
+      </c>
+      <c r="AC239">
+        <v>2.02</v>
+      </c>
+      <c r="AD239">
+        <v>4.2</v>
+      </c>
+      <c r="AE239">
+        <v>3.15</v>
+      </c>
+      <c r="AF239">
+        <v>1.02</v>
+      </c>
+      <c r="AG239">
+        <v>18</v>
+      </c>
+      <c r="AH239">
+        <v>1.15</v>
+      </c>
+      <c r="AI239">
+        <v>4.75</v>
+      </c>
+      <c r="AJ239">
+        <v>1.53</v>
+      </c>
+      <c r="AK239">
+        <v>2.35</v>
+      </c>
+      <c r="AL239">
+        <v>1.48</v>
+      </c>
+      <c r="AM239">
+        <v>2.5</v>
+      </c>
+      <c r="AN239">
+        <v>1.37</v>
+      </c>
+      <c r="AO239">
+        <v>1.24</v>
+      </c>
+      <c r="AP239">
+        <v>1.81</v>
+      </c>
+      <c r="AQ239">
+        <v>0.57</v>
+      </c>
+      <c r="AR239">
+        <v>1.07</v>
+      </c>
+      <c r="AS239">
+        <v>0.6</v>
+      </c>
+      <c r="AT239">
+        <v>1.07</v>
+      </c>
+      <c r="AU239">
+        <v>1.43</v>
+      </c>
+      <c r="AV239">
+        <v>1.26</v>
+      </c>
+      <c r="AW239">
+        <v>2.69</v>
+      </c>
+      <c r="AX239">
+        <v>1.53</v>
+      </c>
+      <c r="AY239">
+        <v>9</v>
+      </c>
+      <c r="AZ239">
+        <v>3.1</v>
+      </c>
+      <c r="BA239">
+        <v>1.1</v>
+      </c>
+      <c r="BB239">
+        <v>1.26</v>
+      </c>
+      <c r="BC239">
+        <v>1.47</v>
+      </c>
+      <c r="BD239">
+        <v>1.88</v>
+      </c>
+      <c r="BE239">
+        <v>2.35</v>
+      </c>
+      <c r="BF239">
+        <v>6</v>
+      </c>
+      <c r="BG239">
+        <v>6</v>
+      </c>
+      <c r="BH239">
+        <v>8</v>
+      </c>
+      <c r="BI239">
+        <v>14</v>
+      </c>
+      <c r="BJ239">
+        <v>14</v>
+      </c>
+      <c r="BK239">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="240" spans="1:63">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>1566232</v>
+      </c>
+      <c r="C240" t="s">
+        <v>63</v>
+      </c>
+      <c r="D240" t="s">
+        <v>64</v>
+      </c>
+      <c r="E240" s="2">
+        <v>44878.54166666666</v>
+      </c>
+      <c r="F240">
+        <v>30</v>
+      </c>
+      <c r="G240" t="s">
+        <v>78</v>
+      </c>
+      <c r="H240" t="s">
+        <v>67</v>
+      </c>
+      <c r="I240">
+        <v>1</v>
+      </c>
+      <c r="J240">
+        <v>2</v>
+      </c>
+      <c r="K240">
+        <v>3</v>
+      </c>
+      <c r="L240">
+        <v>2</v>
+      </c>
+      <c r="M240">
+        <v>2</v>
+      </c>
+      <c r="N240">
+        <v>4</v>
+      </c>
+      <c r="O240" t="s">
+        <v>262</v>
+      </c>
+      <c r="P240" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q240">
+        <v>3</v>
+      </c>
+      <c r="R240">
+        <v>1</v>
+      </c>
+      <c r="S240">
+        <v>4</v>
+      </c>
+      <c r="T240">
+        <v>2.23</v>
+      </c>
+      <c r="U240">
+        <v>2.35</v>
+      </c>
+      <c r="V240">
+        <v>4.5</v>
+      </c>
+      <c r="W240">
+        <v>1.29</v>
+      </c>
+      <c r="X240">
+        <v>3.5</v>
+      </c>
+      <c r="Y240">
+        <v>2.48</v>
+      </c>
+      <c r="Z240">
+        <v>1.5</v>
+      </c>
+      <c r="AA240">
+        <v>6.1</v>
+      </c>
+      <c r="AB240">
+        <v>1.11</v>
+      </c>
+      <c r="AC240">
+        <v>1.75</v>
+      </c>
+      <c r="AD240">
+        <v>3.9</v>
+      </c>
+      <c r="AE240">
+        <v>4.5</v>
+      </c>
+      <c r="AF240">
+        <v>1.03</v>
+      </c>
+      <c r="AG240">
+        <v>16</v>
+      </c>
+      <c r="AH240">
+        <v>1.2</v>
+      </c>
+      <c r="AI240">
+        <v>4.5</v>
+      </c>
+      <c r="AJ240">
+        <v>1.7</v>
+      </c>
+      <c r="AK240">
+        <v>2.16</v>
+      </c>
+      <c r="AL240">
+        <v>1.62</v>
+      </c>
+      <c r="AM240">
+        <v>2.25</v>
+      </c>
+      <c r="AN240">
+        <v>1.22</v>
+      </c>
+      <c r="AO240">
+        <v>1.27</v>
+      </c>
+      <c r="AP240">
+        <v>2.1</v>
+      </c>
+      <c r="AQ240">
+        <v>2</v>
+      </c>
+      <c r="AR240">
+        <v>1.07</v>
+      </c>
+      <c r="AS240">
+        <v>1.93</v>
+      </c>
+      <c r="AT240">
+        <v>1.07</v>
+      </c>
+      <c r="AU240">
+        <v>1.69</v>
+      </c>
+      <c r="AV240">
+        <v>1.28</v>
+      </c>
+      <c r="AW240">
+        <v>2.97</v>
+      </c>
+      <c r="AX240">
+        <v>1.5</v>
+      </c>
+      <c r="AY240">
+        <v>8.6</v>
+      </c>
+      <c r="AZ240">
+        <v>3.28</v>
+      </c>
+      <c r="BA240">
+        <v>1.21</v>
+      </c>
+      <c r="BB240">
+        <v>1.33</v>
+      </c>
+      <c r="BC240">
+        <v>1.6</v>
+      </c>
+      <c r="BD240">
+        <v>2.05</v>
+      </c>
+      <c r="BE240">
+        <v>2.7</v>
+      </c>
+      <c r="BF240">
+        <v>3</v>
+      </c>
+      <c r="BG240">
+        <v>5</v>
+      </c>
+      <c r="BH240">
+        <v>11</v>
+      </c>
+      <c r="BI240">
+        <v>3</v>
+      </c>
+      <c r="BJ240">
+        <v>14</v>
+      </c>
+      <c r="BK240">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:63">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>1566234</v>
+      </c>
+      <c r="C241" t="s">
+        <v>63</v>
+      </c>
+      <c r="D241" t="s">
+        <v>64</v>
+      </c>
+      <c r="E241" s="2">
+        <v>44878.54166666666</v>
+      </c>
+      <c r="F241">
+        <v>30</v>
+      </c>
+      <c r="G241" t="s">
+        <v>79</v>
+      </c>
+      <c r="H241" t="s">
+        <v>66</v>
+      </c>
+      <c r="I241">
+        <v>1</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="K241">
+        <v>1</v>
+      </c>
+      <c r="L241">
+        <v>1</v>
+      </c>
+      <c r="M241">
+        <v>2</v>
+      </c>
+      <c r="N241">
+        <v>3</v>
+      </c>
+      <c r="O241" t="s">
+        <v>235</v>
+      </c>
+      <c r="P241" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q241">
+        <v>8</v>
+      </c>
+      <c r="R241">
+        <v>7</v>
+      </c>
+      <c r="S241">
+        <v>15</v>
+      </c>
+      <c r="T241">
+        <v>3.1</v>
+      </c>
+      <c r="U241">
+        <v>2.7</v>
+      </c>
+      <c r="V241">
+        <v>2.55</v>
+      </c>
+      <c r="W241">
+        <v>1.19</v>
+      </c>
+      <c r="X241">
+        <v>4.5</v>
+      </c>
+      <c r="Y241">
+        <v>2.07</v>
+      </c>
+      <c r="Z241">
+        <v>1.68</v>
+      </c>
+      <c r="AA241">
+        <v>4.7</v>
+      </c>
+      <c r="AB241">
+        <v>1.16</v>
+      </c>
+      <c r="AC241">
+        <v>2.65</v>
+      </c>
+      <c r="AD241">
+        <v>4.4</v>
+      </c>
+      <c r="AE241">
+        <v>2.23</v>
+      </c>
+      <c r="AF241">
+        <v>1.01</v>
+      </c>
+      <c r="AG241">
+        <v>23</v>
+      </c>
+      <c r="AH241">
+        <v>1.11</v>
+      </c>
+      <c r="AI241">
+        <v>5.5</v>
+      </c>
+      <c r="AJ241">
+        <v>1.36</v>
+      </c>
+      <c r="AK241">
+        <v>2.9</v>
+      </c>
+      <c r="AL241">
+        <v>1.36</v>
+      </c>
+      <c r="AM241">
+        <v>2.88</v>
+      </c>
+      <c r="AN241">
+        <v>1.74</v>
+      </c>
+      <c r="AO241">
+        <v>1.22</v>
+      </c>
+      <c r="AP241">
+        <v>1.45</v>
+      </c>
+      <c r="AQ241">
+        <v>2.07</v>
+      </c>
+      <c r="AR241">
+        <v>2.71</v>
+      </c>
+      <c r="AS241">
+        <v>1.93</v>
+      </c>
+      <c r="AT241">
+        <v>2.73</v>
+      </c>
+      <c r="AU241">
+        <v>2.15</v>
+      </c>
+      <c r="AV241">
+        <v>1.57</v>
+      </c>
+      <c r="AW241">
+        <v>3.72</v>
+      </c>
+      <c r="AX241">
+        <v>2.97</v>
+      </c>
+      <c r="AY241">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ241">
+        <v>1.57</v>
+      </c>
+      <c r="BA241">
+        <v>1.1</v>
+      </c>
+      <c r="BB241">
+        <v>1.21</v>
+      </c>
+      <c r="BC241">
+        <v>1.4</v>
+      </c>
+      <c r="BD241">
+        <v>1.7</v>
+      </c>
+      <c r="BE241">
+        <v>2.15</v>
+      </c>
+      <c r="BF241">
+        <v>5</v>
+      </c>
+      <c r="BG241">
+        <v>4</v>
+      </c>
+      <c r="BH241">
+        <v>4</v>
+      </c>
+      <c r="BI241">
+        <v>9</v>
+      </c>
+      <c r="BJ241">
+        <v>9</v>
+      </c>
+      <c r="BK241">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Norway Eliteserien_2022.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Norway Eliteserien_2022.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
